--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3932263.495785269</v>
+        <v>-3932890.538208197</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15146261.88862854</v>
+        <v>15146261.88862855</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>7.844845239621185</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>146.4499769106677</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>146.4499769106677</v>
       </c>
-      <c r="D11" t="n">
-        <v>128.993139662916</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>146.4499769106677</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>108.582939057586</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.260172663732908</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>36.72024109999228</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>118.0349185126516</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7169426335314492</v>
+        <v>0.7169426335314776</v>
       </c>
       <c r="V12" t="n">
-        <v>10.53710347578291</v>
+        <v>10.53710347578294</v>
       </c>
       <c r="W12" t="n">
-        <v>23.3281472286566</v>
+        <v>23.32814722865663</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.27407766563946</v>
+        <v>14.27407766563949</v>
       </c>
       <c r="U13" t="n">
-        <v>68.73102716155481</v>
+        <v>68.73102716155483</v>
       </c>
       <c r="V13" t="n">
-        <v>42.55338854679516</v>
+        <v>42.55338854679519</v>
       </c>
       <c r="W13" t="n">
-        <v>67.72027461740842</v>
+        <v>67.72027461740845</v>
       </c>
       <c r="X13" t="n">
-        <v>13.36537661321154</v>
+        <v>13.36537661321157</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.240244369279225</v>
+        <v>4.240244369279253</v>
       </c>
     </row>
     <row r="14">
@@ -1604,23 +1604,23 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>128.9931396629162</v>
+      </c>
+      <c r="F14" t="n">
         <v>146.4499769106677</v>
       </c>
-      <c r="C14" t="n">
+      <c r="G14" t="n">
         <v>146.4499769106677</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10.95822115026431</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>118.0349185126517</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="Y14" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7169426335315628</v>
+        <v>0.7169426335316197</v>
       </c>
       <c r="V15" t="n">
-        <v>10.53710347578303</v>
+        <v>10.53710347578308</v>
       </c>
       <c r="W15" t="n">
-        <v>23.32814722865672</v>
+        <v>23.32814722865677</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.27407766563958</v>
+        <v>14.27407766563963</v>
       </c>
       <c r="U16" t="n">
-        <v>68.73102716155492</v>
+        <v>68.73102716155498</v>
       </c>
       <c r="V16" t="n">
-        <v>42.55338854679528</v>
+        <v>42.55338854679533</v>
       </c>
       <c r="W16" t="n">
-        <v>67.72027461740853</v>
+        <v>67.72027461740859</v>
       </c>
       <c r="X16" t="n">
-        <v>13.36537661321165</v>
+        <v>13.36537661321171</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.240244369279338</v>
+        <v>4.240244369279395</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>53.95691917256835</v>
       </c>
       <c r="D17" t="n">
-        <v>44.93822321709632</v>
+        <v>44.9382232170968</v>
       </c>
       <c r="E17" t="n">
         <v>66.68036078700186</v>
@@ -2330,7 +2330,7 @@
         <v>85.85217687497902</v>
       </c>
       <c r="G23" t="n">
-        <v>87.26445761256154</v>
+        <v>87.26445761256156</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>34.01527457283485</v>
       </c>
       <c r="T28" t="n">
-        <v>56.36394980491038</v>
+        <v>56.36394980491037</v>
       </c>
       <c r="U28" t="n">
         <v>110.8208993008257</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>216.6184134117432</v>
+        <v>216.6184134117433</v>
       </c>
       <c r="C29" t="n">
         <v>204.629730369425</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>46.35004480300362</v>
+        <v>46.35004480300364</v>
       </c>
       <c r="U29" t="n">
-        <v>78.81011323926299</v>
+        <v>78.81011323926302</v>
       </c>
       <c r="V29" t="n">
         <v>160.1247906519224</v>
@@ -2858,7 +2858,7 @@
         <v>204.7251483626259</v>
       </c>
       <c r="Y29" t="n">
-        <v>216.1217461588246</v>
+        <v>216.1217461588247</v>
       </c>
     </row>
     <row r="30">
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>12.1899930659622</v>
+        <v>12.18999306596223</v>
       </c>
       <c r="U30" t="n">
-        <v>42.80681477280219</v>
+        <v>42.80681477280222</v>
       </c>
       <c r="V30" t="n">
-        <v>52.62697561505365</v>
+        <v>52.62697561505368</v>
       </c>
       <c r="W30" t="n">
-        <v>65.41801936792734</v>
+        <v>65.41801936792737</v>
       </c>
       <c r="X30" t="n">
-        <v>22.45312752988764</v>
+        <v>22.45312752988767</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.11142237582123</v>
+        <v>17.11142237582126</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.23512428644031</v>
+        <v>8.235124286440339</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.01527457283468</v>
+        <v>34.01527457283471</v>
       </c>
       <c r="T31" t="n">
-        <v>56.36394980491021</v>
+        <v>56.36394980491023</v>
       </c>
       <c r="U31" t="n">
-        <v>110.8208993008255</v>
+        <v>110.8208993008256</v>
       </c>
       <c r="V31" t="n">
-        <v>84.6432606860659</v>
+        <v>84.64326068606593</v>
       </c>
       <c r="W31" t="n">
         <v>109.8101467566792</v>
       </c>
       <c r="X31" t="n">
-        <v>55.45524875248228</v>
+        <v>55.45524875248231</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.33011650854996</v>
+        <v>46.33011650854999</v>
       </c>
     </row>
     <row r="32">
@@ -3238,7 +3238,7 @@
         <v>34.01527457283485</v>
       </c>
       <c r="T34" t="n">
-        <v>56.36394980491038</v>
+        <v>56.36394980491037</v>
       </c>
       <c r="U34" t="n">
         <v>110.8208993008257</v>
@@ -3266,22 +3266,22 @@
         <v>172.8997156890573</v>
       </c>
       <c r="C35" t="n">
-        <v>160.911032646739</v>
+        <v>160.9110326467391</v>
       </c>
       <c r="D35" t="n">
         <v>151.892336691267</v>
       </c>
       <c r="E35" t="n">
-        <v>173.6344742611725</v>
+        <v>173.6344742611726</v>
       </c>
       <c r="F35" t="n">
         <v>192.8062903491497</v>
       </c>
       <c r="G35" t="n">
-        <v>194.2185710867322</v>
+        <v>194.2185710867323</v>
       </c>
       <c r="H35" t="n">
-        <v>106.9541134741707</v>
+        <v>106.9541134741708</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.631347080317653</v>
+        <v>2.63134708031771</v>
       </c>
       <c r="U35" t="n">
-        <v>35.09141551657703</v>
+        <v>35.09141551657709</v>
       </c>
       <c r="V35" t="n">
-        <v>116.4060929292364</v>
+        <v>116.4060929292365</v>
       </c>
       <c r="W35" t="n">
-        <v>141.7061924071933</v>
+        <v>141.7061924071934</v>
       </c>
       <c r="X35" t="n">
-        <v>161.0064506399399</v>
+        <v>161.00645063994</v>
       </c>
       <c r="Y35" t="n">
         <v>172.4030484361387</v>
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>8.908277892367693</v>
+        <v>8.908277892367749</v>
       </c>
       <c r="W36" t="n">
-        <v>21.69932164524138</v>
+        <v>21.69932164524144</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>12.64525208222424</v>
+        <v>12.6452520822243</v>
       </c>
       <c r="U37" t="n">
-        <v>67.10220157813959</v>
+        <v>67.10220157813964</v>
       </c>
       <c r="V37" t="n">
-        <v>40.92456296337994</v>
+        <v>40.92456296338</v>
       </c>
       <c r="W37" t="n">
-        <v>66.0914490339932</v>
+        <v>66.09144903399326</v>
       </c>
       <c r="X37" t="n">
-        <v>11.73655102979632</v>
+        <v>11.73655102979637</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.611418785864004</v>
+        <v>2.611418785864061</v>
       </c>
     </row>
     <row r="38">
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>172.8997156890572</v>
+        <v>172.8997156890573</v>
       </c>
       <c r="C38" t="n">
         <v>160.911032646739</v>
       </c>
       <c r="D38" t="n">
-        <v>151.8923366912669</v>
+        <v>151.892336691267</v>
       </c>
       <c r="E38" t="n">
         <v>173.6344742611725</v>
       </c>
       <c r="F38" t="n">
-        <v>192.8062903491496</v>
+        <v>192.8062903491497</v>
       </c>
       <c r="G38" t="n">
         <v>194.2185710867322</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.631347080317596</v>
+        <v>2.631347080317653</v>
       </c>
       <c r="U38" t="n">
-        <v>35.09141551657697</v>
+        <v>35.09141551657703</v>
       </c>
       <c r="V38" t="n">
-        <v>116.4060929292363</v>
+        <v>116.4060929292364</v>
       </c>
       <c r="W38" t="n">
-        <v>141.7061924071932</v>
+        <v>141.7061924071933</v>
       </c>
       <c r="X38" t="n">
         <v>161.0064506399399</v>
       </c>
       <c r="Y38" t="n">
-        <v>172.4030484361386</v>
+        <v>172.4030484361387</v>
       </c>
     </row>
     <row r="39">
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>8.908277892367636</v>
+        <v>8.908277892367693</v>
       </c>
       <c r="W39" t="n">
-        <v>21.69932164524133</v>
+        <v>21.69932164524138</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>12.64525208222419</v>
+        <v>12.64525208222424</v>
       </c>
       <c r="U40" t="n">
-        <v>67.10220157813953</v>
+        <v>67.10220157813959</v>
       </c>
       <c r="V40" t="n">
-        <v>40.92456296337988</v>
+        <v>40.92456296337994</v>
       </c>
       <c r="W40" t="n">
-        <v>66.09144903399314</v>
+        <v>66.0914490339932</v>
       </c>
       <c r="X40" t="n">
-        <v>11.73655102979626</v>
+        <v>11.73655102979632</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.611418785863947</v>
+        <v>2.611418785864004</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>172.8997156890572</v>
+        <v>172.8997156890573</v>
       </c>
       <c r="C41" t="n">
         <v>160.911032646739</v>
       </c>
       <c r="D41" t="n">
-        <v>151.8923366912669</v>
+        <v>151.892336691267</v>
       </c>
       <c r="E41" t="n">
         <v>173.6344742611725</v>
       </c>
       <c r="F41" t="n">
-        <v>192.8062903491496</v>
+        <v>192.8062903491497</v>
       </c>
       <c r="G41" t="n">
         <v>194.2185710867322</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.631347080317604</v>
+        <v>2.631347080317653</v>
       </c>
       <c r="U41" t="n">
-        <v>35.09141551657697</v>
+        <v>35.09141551657703</v>
       </c>
       <c r="V41" t="n">
-        <v>116.4060929292363</v>
+        <v>116.4060929292364</v>
       </c>
       <c r="W41" t="n">
-        <v>141.7061924071932</v>
+        <v>141.7061924071933</v>
       </c>
       <c r="X41" t="n">
         <v>161.0064506399399</v>
       </c>
       <c r="Y41" t="n">
-        <v>172.4030484361386</v>
+        <v>172.4030484361387</v>
       </c>
     </row>
     <row r="42">
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>8.908277892367636</v>
+        <v>8.908277892367693</v>
       </c>
       <c r="W42" t="n">
-        <v>21.69932164524133</v>
+        <v>21.69932164524138</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>12.64525208222419</v>
+        <v>12.64525208222424</v>
       </c>
       <c r="U43" t="n">
-        <v>67.10220157813953</v>
+        <v>67.10220157813959</v>
       </c>
       <c r="V43" t="n">
-        <v>40.92456296337988</v>
+        <v>40.92456296337994</v>
       </c>
       <c r="W43" t="n">
-        <v>66.09144903399314</v>
+        <v>66.0914490339932</v>
       </c>
       <c r="X43" t="n">
-        <v>11.73655102979626</v>
+        <v>11.73655102979632</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.611418785863947</v>
+        <v>2.611418785864004</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>172.8997156890573</v>
+        <v>172.8997156890574</v>
       </c>
       <c r="C44" t="n">
-        <v>160.911032646739</v>
+        <v>160.9110326467391</v>
       </c>
       <c r="D44" t="n">
-        <v>151.892336691267</v>
+        <v>151.8923366912671</v>
       </c>
       <c r="E44" t="n">
-        <v>173.6344742611725</v>
+        <v>173.6344742611726</v>
       </c>
       <c r="F44" t="n">
-        <v>192.8062903491497</v>
+        <v>192.8062903491498</v>
       </c>
       <c r="G44" t="n">
-        <v>194.2185710867322</v>
+        <v>194.2185710867323</v>
       </c>
       <c r="H44" t="n">
-        <v>106.9541134741707</v>
+        <v>106.9541134741708</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.631347080317661</v>
+        <v>2.631347080317744</v>
       </c>
       <c r="U44" t="n">
-        <v>35.09141551657702</v>
+        <v>35.09141551657711</v>
       </c>
       <c r="V44" t="n">
-        <v>116.4060929292364</v>
+        <v>116.4060929292365</v>
       </c>
       <c r="W44" t="n">
-        <v>141.7061924071933</v>
+        <v>141.7061924071934</v>
       </c>
       <c r="X44" t="n">
-        <v>161.0064506399399</v>
+        <v>161.00645063994</v>
       </c>
       <c r="Y44" t="n">
-        <v>172.4030484361387</v>
+        <v>172.4030484361388</v>
       </c>
     </row>
     <row r="45">
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>8.908277892367693</v>
+        <v>8.908277892367778</v>
       </c>
       <c r="W45" t="n">
-        <v>21.69932164524138</v>
+        <v>21.69932164524147</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>12.64525208222424</v>
+        <v>12.64525208222433</v>
       </c>
       <c r="U46" t="n">
-        <v>67.10220157813959</v>
+        <v>67.10220157813967</v>
       </c>
       <c r="V46" t="n">
-        <v>40.92456296337994</v>
+        <v>40.92456296338003</v>
       </c>
       <c r="W46" t="n">
-        <v>66.0914490339932</v>
+        <v>66.09144903399329</v>
       </c>
       <c r="X46" t="n">
-        <v>11.73655102979632</v>
+        <v>11.7365510297964</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.611418785864004</v>
+        <v>2.611418785864089</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>437.8706380359358</v>
+        <v>417.2542737881275</v>
       </c>
       <c r="C11" t="n">
-        <v>289.9413684292008</v>
+        <v>417.2542737881275</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6452677595885</v>
+        <v>417.2542737881275</v>
       </c>
       <c r="E11" t="n">
-        <v>159.6452677595885</v>
+        <v>269.3250041813925</v>
       </c>
       <c r="F11" t="n">
-        <v>11.71599815285342</v>
+        <v>269.3250041813925</v>
       </c>
       <c r="G11" t="n">
-        <v>11.71599815285342</v>
+        <v>121.3957345746575</v>
       </c>
       <c r="H11" t="n">
         <v>11.71599815285342</v>
@@ -5039,28 +5039,28 @@
         <v>75.6411827443915</v>
       </c>
       <c r="J11" t="n">
-        <v>112.2221033342182</v>
+        <v>75.6411827443915</v>
       </c>
       <c r="K11" t="n">
-        <v>214.2149518509373</v>
+        <v>146.2665676395013</v>
       </c>
       <c r="L11" t="n">
-        <v>214.2149518509373</v>
+        <v>251.4342992340672</v>
       </c>
       <c r="M11" t="n">
-        <v>332.9149964845656</v>
+        <v>370.1343438676955</v>
       </c>
       <c r="N11" t="n">
-        <v>453.83111166009</v>
+        <v>370.1343438676955</v>
       </c>
       <c r="O11" t="n">
-        <v>453.83111166009</v>
+        <v>370.1343438676955</v>
       </c>
       <c r="P11" t="n">
-        <v>453.83111166009</v>
+        <v>471.724538899666</v>
       </c>
       <c r="Q11" t="n">
-        <v>544.1309342247927</v>
+        <v>471.724538899666</v>
       </c>
       <c r="R11" t="n">
         <v>544.1309342247927</v>
@@ -5069,22 +5069,22 @@
         <v>585.7999076426709</v>
       </c>
       <c r="T11" t="n">
-        <v>585.7999076426709</v>
+        <v>581.4967029318294</v>
       </c>
       <c r="U11" t="n">
-        <v>585.7999076426709</v>
+        <v>544.4055503055746</v>
       </c>
       <c r="V11" t="n">
-        <v>585.7999076426709</v>
+        <v>425.178359888755</v>
       </c>
       <c r="W11" t="n">
-        <v>585.7999076426709</v>
+        <v>425.178359888755</v>
       </c>
       <c r="X11" t="n">
-        <v>585.7999076426709</v>
+        <v>425.178359888755</v>
       </c>
       <c r="Y11" t="n">
-        <v>585.7999076426709</v>
+        <v>425.178359888755</v>
       </c>
     </row>
     <row r="12">
@@ -5115,46 +5115,46 @@
         <v>11.71599815285342</v>
       </c>
       <c r="I12" t="n">
-        <v>46.64750657504631</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J12" t="n">
-        <v>46.64750657504631</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K12" t="n">
-        <v>46.64750657504631</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L12" t="n">
-        <v>46.64750657504631</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M12" t="n">
-        <v>46.64750657504631</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N12" t="n">
-        <v>46.64750657504631</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O12" t="n">
-        <v>46.64750657504631</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P12" t="n">
-        <v>46.64750657504631</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.64750657504631</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="R12" t="n">
-        <v>46.64750657504631</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="S12" t="n">
-        <v>46.64750657504631</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="T12" t="n">
-        <v>46.64750657504631</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="U12" t="n">
-        <v>45.92332209673172</v>
+        <v>45.92332209673178</v>
       </c>
       <c r="V12" t="n">
-        <v>35.27978323230453</v>
+        <v>35.27978323230457</v>
       </c>
       <c r="W12" t="n">
         <v>11.71599815285342</v>
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.71599815285342</v>
+        <v>45.23219852715551</v>
       </c>
       <c r="C13" t="n">
-        <v>26.13797638580571</v>
+        <v>92.41040400451112</v>
       </c>
       <c r="D13" t="n">
-        <v>26.13797638580571</v>
+        <v>92.41040400451112</v>
       </c>
       <c r="E13" t="n">
-        <v>26.13797638580571</v>
+        <v>156.8451863710425</v>
       </c>
       <c r="F13" t="n">
-        <v>26.13797638580571</v>
+        <v>220.8177136526694</v>
       </c>
       <c r="G13" t="n">
-        <v>26.13797638580571</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="H13" t="n">
-        <v>85.41266417831341</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="I13" t="n">
-        <v>85.41266417831341</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="J13" t="n">
-        <v>85.41266417831341</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="K13" t="n">
-        <v>85.41266417831341</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="L13" t="n">
-        <v>224.7305324699126</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="M13" t="n">
-        <v>224.7305324699126</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="N13" t="n">
-        <v>224.7305324699126</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="O13" t="n">
-        <v>224.7305324699126</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="P13" t="n">
-        <v>224.7305324699126</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="Q13" t="n">
-        <v>224.7305324699126</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="R13" t="n">
-        <v>224.7305324699126</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="S13" t="n">
-        <v>224.7305324699126</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="T13" t="n">
-        <v>210.31227220159</v>
+        <v>210.3122722015901</v>
       </c>
       <c r="U13" t="n">
-        <v>140.8869922404235</v>
+        <v>140.8869922404236</v>
       </c>
       <c r="V13" t="n">
-        <v>97.90377148608492</v>
+        <v>97.90377148608501</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49945369072287</v>
+        <v>29.49945369072293</v>
       </c>
       <c r="X13" t="n">
-        <v>15.99907327333748</v>
+        <v>15.99907327333751</v>
       </c>
       <c r="Y13" t="n">
         <v>11.71599815285342</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.7141780123807</v>
+        <v>437.8706380359358</v>
       </c>
       <c r="C14" t="n">
-        <v>22.78490840564564</v>
+        <v>437.8706380359358</v>
       </c>
       <c r="D14" t="n">
-        <v>22.78490840564564</v>
+        <v>437.8706380359358</v>
       </c>
       <c r="E14" t="n">
-        <v>22.78490840564564</v>
+        <v>307.5745373663235</v>
       </c>
       <c r="F14" t="n">
-        <v>11.71599815285342</v>
+        <v>159.6452677595885</v>
       </c>
       <c r="G14" t="n">
         <v>11.71599815285342</v>
@@ -5273,25 +5273,25 @@
         <v>11.71599815285342</v>
       </c>
       <c r="I14" t="n">
-        <v>75.64118274439139</v>
+        <v>75.64118274439136</v>
       </c>
       <c r="J14" t="n">
-        <v>75.64118274439139</v>
+        <v>187.2071531304963</v>
       </c>
       <c r="K14" t="n">
-        <v>75.64118274439139</v>
+        <v>266.1884773512032</v>
       </c>
       <c r="L14" t="n">
-        <v>161.1344766693652</v>
+        <v>266.1884773512032</v>
       </c>
       <c r="M14" t="n">
-        <v>279.8345213029934</v>
+        <v>266.1884773512032</v>
       </c>
       <c r="N14" t="n">
-        <v>279.8345213029934</v>
+        <v>266.1884773512032</v>
       </c>
       <c r="O14" t="n">
-        <v>279.8345213029934</v>
+        <v>381.4247163349636</v>
       </c>
       <c r="P14" t="n">
         <v>381.4247163349636</v>
@@ -5312,16 +5312,16 @@
         <v>585.7999076426709</v>
       </c>
       <c r="V14" t="n">
-        <v>466.5727172258509</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="W14" t="n">
-        <v>466.5727172258509</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="X14" t="n">
-        <v>466.5727172258509</v>
+        <v>437.8706380359358</v>
       </c>
       <c r="Y14" t="n">
-        <v>318.6434476191158</v>
+        <v>437.8706380359358</v>
       </c>
     </row>
     <row r="15">
@@ -5376,22 +5376,22 @@
         <v>11.71599815285342</v>
       </c>
       <c r="Q15" t="n">
-        <v>11.71599815285342</v>
+        <v>46.64750657504683</v>
       </c>
       <c r="R15" t="n">
-        <v>46.64750657504666</v>
+        <v>46.64750657504683</v>
       </c>
       <c r="S15" t="n">
-        <v>46.64750657504666</v>
+        <v>46.64750657504683</v>
       </c>
       <c r="T15" t="n">
-        <v>46.64750657504666</v>
+        <v>46.64750657504683</v>
       </c>
       <c r="U15" t="n">
-        <v>45.92332209673195</v>
+        <v>45.92332209673206</v>
       </c>
       <c r="V15" t="n">
-        <v>35.27978323230465</v>
+        <v>35.27978323230471</v>
       </c>
       <c r="W15" t="n">
         <v>11.71599815285342</v>
@@ -5416,67 +5416,67 @@
         <v>11.71599815285342</v>
       </c>
       <c r="D16" t="n">
-        <v>11.71599815285342</v>
+        <v>75.10905287660628</v>
       </c>
       <c r="E16" t="n">
-        <v>11.71599815285342</v>
+        <v>139.5438352431375</v>
       </c>
       <c r="F16" t="n">
-        <v>11.71599815285342</v>
+        <v>139.5438352431375</v>
       </c>
       <c r="G16" t="n">
-        <v>11.71599815285342</v>
+        <v>139.5438352431375</v>
       </c>
       <c r="H16" t="n">
-        <v>11.71599815285342</v>
+        <v>139.5438352431375</v>
       </c>
       <c r="I16" t="n">
-        <v>11.71599815285342</v>
+        <v>139.5438352431375</v>
       </c>
       <c r="J16" t="n">
-        <v>11.71599815285342</v>
+        <v>224.7305324699137</v>
       </c>
       <c r="K16" t="n">
-        <v>11.71599815285342</v>
+        <v>224.7305324699137</v>
       </c>
       <c r="L16" t="n">
-        <v>151.0338664444525</v>
+        <v>224.7305324699137</v>
       </c>
       <c r="M16" t="n">
-        <v>151.0338664444525</v>
+        <v>224.7305324699137</v>
       </c>
       <c r="N16" t="n">
-        <v>224.7305324699133</v>
+        <v>224.7305324699137</v>
       </c>
       <c r="O16" t="n">
-        <v>224.7305324699133</v>
+        <v>224.7305324699137</v>
       </c>
       <c r="P16" t="n">
-        <v>224.7305324699133</v>
+        <v>224.7305324699137</v>
       </c>
       <c r="Q16" t="n">
-        <v>224.7305324699133</v>
+        <v>224.7305324699137</v>
       </c>
       <c r="R16" t="n">
-        <v>224.7305324699133</v>
+        <v>224.7305324699137</v>
       </c>
       <c r="S16" t="n">
-        <v>224.7305324699133</v>
+        <v>224.7305324699137</v>
       </c>
       <c r="T16" t="n">
-        <v>210.3122722015905</v>
+        <v>210.3122722015908</v>
       </c>
       <c r="U16" t="n">
-        <v>140.8869922404239</v>
+        <v>140.8869922404242</v>
       </c>
       <c r="V16" t="n">
-        <v>97.90377148608526</v>
+        <v>97.90377148608545</v>
       </c>
       <c r="W16" t="n">
-        <v>29.4994536907231</v>
+        <v>29.49945369072322</v>
       </c>
       <c r="X16" t="n">
-        <v>15.9990732733376</v>
+        <v>15.99907327333766</v>
       </c>
       <c r="Y16" t="n">
         <v>11.71599815285342</v>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>353.8292685207388</v>
+        <v>353.8292685207391</v>
       </c>
       <c r="C17" t="n">
-        <v>299.3273299625889</v>
+        <v>299.3273299625893</v>
       </c>
       <c r="D17" t="n">
-        <v>253.9351852988552</v>
+        <v>253.9351852988558</v>
       </c>
       <c r="E17" t="n">
-        <v>186.5812855140052</v>
+        <v>186.5812855140055</v>
       </c>
       <c r="F17" t="n">
         <v>99.86191493321863</v>
@@ -5510,31 +5510,31 @@
         <v>11.71599815285342</v>
       </c>
       <c r="I17" t="n">
-        <v>121.4053436516166</v>
+        <v>156.7014752944145</v>
       </c>
       <c r="J17" t="n">
-        <v>121.4053436516166</v>
+        <v>266.3908207931777</v>
       </c>
       <c r="K17" t="n">
-        <v>121.4053436516166</v>
+        <v>266.3908207931777</v>
       </c>
       <c r="L17" t="n">
-        <v>121.4053436516166</v>
+        <v>266.3908207931777</v>
       </c>
       <c r="M17" t="n">
-        <v>121.4053436516166</v>
+        <v>266.3908207931777</v>
       </c>
       <c r="N17" t="n">
-        <v>121.4053436516166</v>
+        <v>266.3908207931777</v>
       </c>
       <c r="O17" t="n">
-        <v>121.4053436516166</v>
+        <v>266.3908207931777</v>
       </c>
       <c r="P17" t="n">
-        <v>121.4053436516166</v>
+        <v>266.3908207931777</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.4053436516166</v>
+        <v>266.3908207931777</v>
       </c>
       <c r="R17" t="n">
         <v>266.3908207931777</v>
@@ -5555,10 +5555,10 @@
         <v>541.1493436142988</v>
       </c>
       <c r="X17" t="n">
-        <v>486.5510232448344</v>
+        <v>486.5510232448349</v>
       </c>
       <c r="Y17" t="n">
-        <v>420.4409879297151</v>
+        <v>420.4409879297154</v>
       </c>
     </row>
     <row r="18">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>353.8292685207393</v>
+        <v>353.829268520739</v>
       </c>
       <c r="C20" t="n">
-        <v>299.3273299625898</v>
+        <v>299.3273299625891</v>
       </c>
       <c r="D20" t="n">
-        <v>253.9351852988562</v>
+        <v>253.9351852988557</v>
       </c>
       <c r="E20" t="n">
-        <v>186.5812855140059</v>
+        <v>186.5812855140057</v>
       </c>
       <c r="F20" t="n">
         <v>99.86191493321863</v>
@@ -5747,55 +5747,55 @@
         <v>11.71599815285342</v>
       </c>
       <c r="I20" t="n">
-        <v>11.71599815285342</v>
+        <v>156.7014752944145</v>
       </c>
       <c r="J20" t="n">
-        <v>11.71599815285342</v>
+        <v>301.6869524359755</v>
       </c>
       <c r="K20" t="n">
-        <v>121.4053436516166</v>
+        <v>446.6724295775365</v>
       </c>
       <c r="L20" t="n">
-        <v>121.4053436516166</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="M20" t="n">
-        <v>121.4053436516166</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="N20" t="n">
-        <v>121.4053436516166</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="O20" t="n">
-        <v>121.4053436516166</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="P20" t="n">
-        <v>121.4053436516166</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="Q20" t="n">
-        <v>266.3908207931777</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="R20" t="n">
-        <v>266.3908207931777</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="S20" t="n">
-        <v>411.3762979347387</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="T20" t="n">
-        <v>514.6558366646532</v>
+        <v>585.7999076426709</v>
       </c>
       <c r="U20" t="n">
         <v>585.7999076426709</v>
       </c>
       <c r="V20" t="n">
-        <v>576.2524536476551</v>
+        <v>576.2524536476549</v>
       </c>
       <c r="W20" t="n">
-        <v>541.1493436142989</v>
+        <v>541.1493436142987</v>
       </c>
       <c r="X20" t="n">
-        <v>486.5510232448351</v>
+        <v>486.5510232448348</v>
       </c>
       <c r="Y20" t="n">
-        <v>420.4409879297157</v>
+        <v>420.4409879297153</v>
       </c>
     </row>
     <row r="21">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>353.8292685207393</v>
+        <v>353.8292685207398</v>
       </c>
       <c r="C23" t="n">
-        <v>299.3273299625895</v>
+        <v>299.3273299625898</v>
       </c>
       <c r="D23" t="n">
-        <v>253.9351852988558</v>
+        <v>253.9351852988561</v>
       </c>
       <c r="E23" t="n">
-        <v>186.5812855140055</v>
+        <v>186.5812855140058</v>
       </c>
       <c r="F23" t="n">
-        <v>99.86191493321856</v>
+        <v>99.86191493321863</v>
       </c>
       <c r="G23" t="n">
-        <v>11.71599815285336</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H23" t="n">
         <v>11.71599815285342</v>
@@ -5990,31 +5990,31 @@
         <v>301.6869524359755</v>
       </c>
       <c r="K23" t="n">
-        <v>446.6724295775365</v>
+        <v>301.6869524359755</v>
       </c>
       <c r="L23" t="n">
-        <v>446.6724295775365</v>
+        <v>301.6869524359755</v>
       </c>
       <c r="M23" t="n">
-        <v>446.6724295775365</v>
+        <v>301.6869524359755</v>
       </c>
       <c r="N23" t="n">
-        <v>446.6724295775365</v>
+        <v>411.3762979347387</v>
       </c>
       <c r="O23" t="n">
-        <v>446.6724295775365</v>
+        <v>411.3762979347387</v>
       </c>
       <c r="P23" t="n">
-        <v>446.6724295775365</v>
+        <v>411.3762979347387</v>
       </c>
       <c r="Q23" t="n">
-        <v>446.6724295775365</v>
+        <v>411.3762979347387</v>
       </c>
       <c r="R23" t="n">
-        <v>446.6724295775365</v>
+        <v>411.3762979347387</v>
       </c>
       <c r="S23" t="n">
-        <v>446.6724295775365</v>
+        <v>411.3762979347387</v>
       </c>
       <c r="T23" t="n">
         <v>514.6558366646532</v>
@@ -6023,16 +6023,16 @@
         <v>585.7999076426709</v>
       </c>
       <c r="V23" t="n">
-        <v>576.252453647655</v>
+        <v>576.2524536476553</v>
       </c>
       <c r="W23" t="n">
-        <v>541.1493436142988</v>
+        <v>541.1493436142994</v>
       </c>
       <c r="X23" t="n">
-        <v>486.5510232448349</v>
+        <v>486.5510232448354</v>
       </c>
       <c r="Y23" t="n">
-        <v>420.4409879297157</v>
+        <v>420.4409879297162</v>
       </c>
     </row>
     <row r="24">
@@ -6206,55 +6206,55 @@
         <v>1097.04738406355</v>
       </c>
       <c r="D26" t="n">
-        <v>899.4604806151121</v>
+        <v>899.4604806151126</v>
       </c>
       <c r="E26" t="n">
-        <v>679.911822045558</v>
+        <v>679.9118220455584</v>
       </c>
       <c r="F26" t="n">
-        <v>440.9976926800672</v>
+        <v>440.9976926800677</v>
       </c>
       <c r="G26" t="n">
         <v>200.6570171149989</v>
       </c>
       <c r="H26" t="n">
-        <v>48.46225833029499</v>
+        <v>48.462258330295</v>
       </c>
       <c r="I26" t="n">
-        <v>70.71846950395488</v>
+        <v>70.71846950395491</v>
       </c>
       <c r="J26" t="n">
-        <v>140.6154664721817</v>
+        <v>358.2428101986408</v>
       </c>
       <c r="K26" t="n">
-        <v>580.3151206523107</v>
+        <v>418.5666852974817</v>
       </c>
       <c r="L26" t="n">
-        <v>1009.594018151443</v>
+        <v>482.0654434741694</v>
       </c>
       <c r="M26" t="n">
-        <v>1493.399163168484</v>
+        <v>559.0965146899196</v>
       </c>
       <c r="N26" t="n">
-        <v>1963.76195284037</v>
+        <v>1158.81696152732</v>
       </c>
       <c r="O26" t="n">
-        <v>2199.246391470056</v>
+        <v>1627.156515357838</v>
       </c>
       <c r="P26" t="n">
-        <v>2259.167613084148</v>
+        <v>2101.232674388628</v>
       </c>
       <c r="Q26" t="n">
-        <v>2307.798462230973</v>
+        <v>2423.11291651475</v>
       </c>
       <c r="R26" t="n">
-        <v>2423.112916514749</v>
+        <v>2423.11291651475</v>
       </c>
       <c r="S26" t="n">
-        <v>2423.112916514749</v>
+        <v>2423.11291651475</v>
       </c>
       <c r="T26" t="n">
-        <v>2376.294689441008</v>
+        <v>2376.294689441009</v>
       </c>
       <c r="U26" t="n">
         <v>2296.688514451854</v>
@@ -6266,7 +6266,7 @@
         <v>1947.648432854074</v>
       </c>
       <c r="X26" t="n">
-        <v>1740.855353699906</v>
+        <v>1740.855353699907</v>
       </c>
       <c r="Y26" t="n">
         <v>1522.550559600083</v>
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>48.46225833029499</v>
+        <v>48.462258330295</v>
       </c>
       <c r="C27" t="n">
-        <v>61.72633246313928</v>
+        <v>48.462258330295</v>
       </c>
       <c r="D27" t="n">
-        <v>61.72633246313928</v>
+        <v>48.462258330295</v>
       </c>
       <c r="E27" t="n">
-        <v>61.72633246313928</v>
+        <v>48.462258330295</v>
       </c>
       <c r="F27" t="n">
-        <v>61.72633246313928</v>
+        <v>48.462258330295</v>
       </c>
       <c r="G27" t="n">
-        <v>61.72633246313928</v>
+        <v>48.462258330295</v>
       </c>
       <c r="H27" t="n">
-        <v>61.72633246313928</v>
+        <v>48.462258330295</v>
       </c>
       <c r="I27" t="n">
-        <v>162.924294529466</v>
+        <v>48.462258330295</v>
       </c>
       <c r="J27" t="n">
-        <v>258.721779867371</v>
+        <v>48.462258330295</v>
       </c>
       <c r="K27" t="n">
-        <v>258.721779867371</v>
+        <v>48.462258330295</v>
       </c>
       <c r="L27" t="n">
-        <v>258.721779867371</v>
+        <v>48.462258330295</v>
       </c>
       <c r="M27" t="n">
-        <v>258.721779867371</v>
+        <v>48.462258330295</v>
       </c>
       <c r="N27" t="n">
-        <v>263.2161499741892</v>
+        <v>48.462258330295</v>
       </c>
       <c r="O27" t="n">
         <v>263.2161499741892</v>
@@ -6348,7 +6348,7 @@
         <v>65.74652335637722</v>
       </c>
       <c r="Y27" t="n">
-        <v>48.46225833029499</v>
+        <v>48.462258330295</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.462258330295</v>
       </c>
       <c r="C28" t="n">
-        <v>53.97149038977244</v>
+        <v>53.97149038977245</v>
       </c>
       <c r="D28" t="n">
         <v>75.69557169564729</v>
@@ -6379,28 +6379,28 @@
         <v>144.793606987531</v>
       </c>
       <c r="I28" t="n">
-        <v>182.1676712119454</v>
+        <v>182.1676712119455</v>
       </c>
       <c r="J28" t="n">
-        <v>311.412562899279</v>
+        <v>182.1676712119455</v>
       </c>
       <c r="K28" t="n">
-        <v>311.412562899279</v>
+        <v>182.1676712119455</v>
       </c>
       <c r="L28" t="n">
-        <v>311.412562899279</v>
+        <v>182.1676712119455</v>
       </c>
       <c r="M28" t="n">
-        <v>407.680700725016</v>
+        <v>336.4278988241545</v>
       </c>
       <c r="N28" t="n">
-        <v>454.3815197383273</v>
+        <v>336.4278988241545</v>
       </c>
       <c r="O28" t="n">
-        <v>454.3815197383273</v>
+        <v>467.5932205296496</v>
       </c>
       <c r="P28" t="n">
-        <v>454.3815197383273</v>
+        <v>523.6377675245911</v>
       </c>
       <c r="Q28" t="n">
         <v>523.6377675245911</v>
@@ -6427,7 +6427,7 @@
         <v>103.5786631737199</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.78056569033588</v>
+        <v>56.78056569033589</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1303.744081406404</v>
+        <v>1303.744081406403</v>
       </c>
       <c r="C29" t="n">
         <v>1097.04738406355</v>
       </c>
       <c r="D29" t="n">
-        <v>899.4604806151132</v>
+        <v>899.4604806151126</v>
       </c>
       <c r="E29" t="n">
-        <v>679.9118220455591</v>
+        <v>679.9118220455586</v>
       </c>
       <c r="F29" t="n">
-        <v>440.9976926800686</v>
+        <v>440.997692680068</v>
       </c>
       <c r="G29" t="n">
-        <v>200.6570171149987</v>
+        <v>200.6570171149988</v>
       </c>
       <c r="H29" t="n">
         <v>48.462258330295</v>
@@ -6461,28 +6461,28 @@
         <v>70.71846950395505</v>
       </c>
       <c r="J29" t="n">
-        <v>70.71846950395505</v>
+        <v>358.242810198641</v>
       </c>
       <c r="K29" t="n">
-        <v>548.217490581885</v>
+        <v>835.741831276571</v>
       </c>
       <c r="L29" t="n">
-        <v>921.8015170657815</v>
+        <v>1435.462278113971</v>
       </c>
       <c r="M29" t="n">
-        <v>998.8325882815317</v>
+        <v>1931.32688910964</v>
       </c>
       <c r="N29" t="n">
-        <v>1598.553035118932</v>
+        <v>2010.574030867287</v>
       </c>
       <c r="O29" t="n">
-        <v>1990.460290165983</v>
+        <v>2010.574030867287</v>
       </c>
       <c r="P29" t="n">
-        <v>2050.381511780075</v>
+        <v>2070.495252481379</v>
       </c>
       <c r="Q29" t="n">
-        <v>2372.261753906198</v>
+        <v>2392.375494607501</v>
       </c>
       <c r="R29" t="n">
         <v>2423.11291651475</v>
@@ -6494,7 +6494,7 @@
         <v>2376.294689441008</v>
       </c>
       <c r="U29" t="n">
-        <v>2296.688514451854</v>
+        <v>2296.688514451853</v>
       </c>
       <c r="V29" t="n">
         <v>2134.946301672134</v>
@@ -6503,10 +6503,10 @@
         <v>1947.648432854074</v>
       </c>
       <c r="X29" t="n">
-        <v>1740.855353699907</v>
+        <v>1740.855353699906</v>
       </c>
       <c r="Y29" t="n">
-        <v>1522.550559600084</v>
+        <v>1522.550559600083</v>
       </c>
     </row>
     <row r="30">
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>63.96510626436596</v>
+        <v>48.462258330295</v>
       </c>
       <c r="C30" t="n">
-        <v>63.96510626436596</v>
+        <v>48.462258330295</v>
       </c>
       <c r="D30" t="n">
-        <v>63.96510626436596</v>
+        <v>48.462258330295</v>
       </c>
       <c r="E30" t="n">
-        <v>91.61279752309021</v>
+        <v>48.462258330295</v>
       </c>
       <c r="F30" t="n">
-        <v>91.61279752309021</v>
+        <v>48.462258330295</v>
       </c>
       <c r="G30" t="n">
-        <v>137.4718036782228</v>
+        <v>48.462258330295</v>
       </c>
       <c r="H30" t="n">
-        <v>137.4718036782228</v>
+        <v>48.462258330295</v>
       </c>
       <c r="I30" t="n">
-        <v>137.4718036782228</v>
+        <v>48.462258330295</v>
       </c>
       <c r="J30" t="n">
-        <v>137.4718036782228</v>
+        <v>48.462258330295</v>
       </c>
       <c r="K30" t="n">
-        <v>137.4718036782228</v>
+        <v>263.2161499741883</v>
       </c>
       <c r="L30" t="n">
-        <v>257.6915127777346</v>
+        <v>263.2161499741883</v>
       </c>
       <c r="M30" t="n">
-        <v>257.6915127777346</v>
+        <v>263.2161499741883</v>
       </c>
       <c r="N30" t="n">
-        <v>257.6915127777346</v>
+        <v>263.2161499741883</v>
       </c>
       <c r="O30" t="n">
-        <v>257.6915127777346</v>
+        <v>263.2161499741883</v>
       </c>
       <c r="P30" t="n">
-        <v>257.6915127777346</v>
+        <v>263.2161499741883</v>
       </c>
       <c r="Q30" t="n">
-        <v>263.2161499741882</v>
+        <v>263.2161499741883</v>
       </c>
       <c r="R30" t="n">
-        <v>263.2161499741882</v>
+        <v>263.2161499741883</v>
       </c>
       <c r="S30" t="n">
-        <v>263.2161499741882</v>
+        <v>263.2161499741883</v>
       </c>
       <c r="T30" t="n">
-        <v>250.9030256651355</v>
+        <v>250.9030256651356</v>
       </c>
       <c r="U30" t="n">
-        <v>207.6638188239211</v>
+        <v>207.6638188239212</v>
       </c>
       <c r="V30" t="n">
-        <v>154.5052575965942</v>
+        <v>154.5052575965943</v>
       </c>
       <c r="W30" t="n">
-        <v>88.42645015424335</v>
+        <v>88.42645015424341</v>
       </c>
       <c r="X30" t="n">
-        <v>65.74652335637705</v>
+        <v>65.74652335637708</v>
       </c>
       <c r="Y30" t="n">
         <v>48.462258330295</v>
@@ -6598,73 +6598,73 @@
         <v>48.462258330295</v>
       </c>
       <c r="C31" t="n">
-        <v>53.97149038977261</v>
+        <v>53.97149038977259</v>
       </c>
       <c r="D31" t="n">
-        <v>53.97149038977261</v>
+        <v>75.69557169564757</v>
       </c>
       <c r="E31" t="n">
-        <v>53.97149038977261</v>
+        <v>98.4613806443009</v>
       </c>
       <c r="F31" t="n">
-        <v>76.27504425352151</v>
+        <v>120.7649345080498</v>
       </c>
       <c r="G31" t="n">
-        <v>82.69800235837394</v>
+        <v>127.1878926129022</v>
       </c>
       <c r="H31" t="n">
-        <v>100.3037167330036</v>
+        <v>144.7936069875318</v>
       </c>
       <c r="I31" t="n">
-        <v>100.3037167330036</v>
+        <v>182.1676712119465</v>
       </c>
       <c r="J31" t="n">
-        <v>186.2587658379924</v>
+        <v>311.4125628992801</v>
       </c>
       <c r="K31" t="n">
-        <v>281.1133880314176</v>
+        <v>337.1283594250916</v>
       </c>
       <c r="L31" t="n">
-        <v>378.7622829051388</v>
+        <v>337.1283594250916</v>
       </c>
       <c r="M31" t="n">
-        <v>378.7622829051388</v>
+        <v>337.1283594250916</v>
       </c>
       <c r="N31" t="n">
-        <v>378.7622829051388</v>
+        <v>337.1283594250916</v>
       </c>
       <c r="O31" t="n">
-        <v>434.6909544466852</v>
+        <v>468.2936811305867</v>
       </c>
       <c r="P31" t="n">
-        <v>523.6377675245894</v>
+        <v>559.2440973896771</v>
       </c>
       <c r="Q31" t="n">
-        <v>523.6377675245894</v>
+        <v>559.2440973896771</v>
       </c>
       <c r="R31" t="n">
-        <v>559.2440973896769</v>
+        <v>559.2440973896771</v>
       </c>
       <c r="S31" t="n">
-        <v>524.8852341847934</v>
+        <v>524.8852341847936</v>
       </c>
       <c r="T31" t="n">
-        <v>467.9519515535709</v>
+        <v>467.9519515535711</v>
       </c>
       <c r="U31" t="n">
-        <v>356.0116492295047</v>
+        <v>356.0116492295049</v>
       </c>
       <c r="V31" t="n">
-        <v>270.5134061122664</v>
+        <v>270.5134061122666</v>
       </c>
       <c r="W31" t="n">
-        <v>159.5940659540046</v>
+        <v>159.5940659540047</v>
       </c>
       <c r="X31" t="n">
-        <v>103.5786631737195</v>
+        <v>103.5786631737196</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.78056569033572</v>
+        <v>56.78056569033575</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1303.744081406404</v>
+        <v>1303.744081406403</v>
       </c>
       <c r="C32" t="n">
         <v>1097.04738406355</v>
@@ -6695,31 +6695,31 @@
         <v>48.462258330295</v>
       </c>
       <c r="I32" t="n">
-        <v>70.71846950395488</v>
+        <v>70.71846950395491</v>
       </c>
       <c r="J32" t="n">
-        <v>186.4929663946561</v>
+        <v>140.6154664721818</v>
       </c>
       <c r="K32" t="n">
-        <v>492.2421436686014</v>
+        <v>246.1353781078208</v>
       </c>
       <c r="L32" t="n">
-        <v>757.3562537985501</v>
+        <v>845.8558249452213</v>
       </c>
       <c r="M32" t="n">
-        <v>1241.161398815591</v>
+        <v>1445.576271782622</v>
       </c>
       <c r="N32" t="n">
-        <v>1711.524188487476</v>
+        <v>1524.823413540268</v>
       </c>
       <c r="O32" t="n">
-        <v>1785.091454053359</v>
+        <v>1598.390679106151</v>
       </c>
       <c r="P32" t="n">
-        <v>2259.167613084149</v>
+        <v>2072.466838136941</v>
       </c>
       <c r="Q32" t="n">
-        <v>2307.798462230973</v>
+        <v>2394.347080263063</v>
       </c>
       <c r="R32" t="n">
         <v>2423.11291651475</v>
@@ -6731,19 +6731,19 @@
         <v>2376.294689441009</v>
       </c>
       <c r="U32" t="n">
-        <v>2296.688514451855</v>
+        <v>2296.688514451854</v>
       </c>
       <c r="V32" t="n">
-        <v>2134.946301672135</v>
+        <v>2134.946301672134</v>
       </c>
       <c r="W32" t="n">
-        <v>1947.648432854076</v>
+        <v>1947.648432854074</v>
       </c>
       <c r="X32" t="n">
-        <v>1740.855353699908</v>
+        <v>1740.855353699907</v>
       </c>
       <c r="Y32" t="n">
-        <v>1522.550559600085</v>
+        <v>1522.550559600083</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>48.462258330295</v>
       </c>
       <c r="H33" t="n">
-        <v>86.07724788239533</v>
+        <v>48.462258330295</v>
       </c>
       <c r="I33" t="n">
-        <v>86.07724788239533</v>
+        <v>48.462258330295</v>
       </c>
       <c r="J33" t="n">
-        <v>86.07724788239533</v>
+        <v>48.462258330295</v>
       </c>
       <c r="K33" t="n">
-        <v>191.5132086431843</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="L33" t="n">
-        <v>191.5132086431843</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="M33" t="n">
-        <v>191.5132086431843</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="N33" t="n">
-        <v>191.5132086431843</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="O33" t="n">
-        <v>191.5132086431843</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="P33" t="n">
-        <v>191.5132086431843</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="Q33" t="n">
-        <v>191.5132086431843</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="R33" t="n">
         <v>263.2161499741892</v>
@@ -6838,46 +6838,46 @@
         <v>53.97149038977245</v>
       </c>
       <c r="D34" t="n">
-        <v>53.97149038977245</v>
+        <v>75.69557169564729</v>
       </c>
       <c r="E34" t="n">
-        <v>53.97149038977245</v>
+        <v>98.46138064430048</v>
       </c>
       <c r="F34" t="n">
-        <v>76.27504425352119</v>
+        <v>120.7649345080492</v>
       </c>
       <c r="G34" t="n">
-        <v>76.27504425352119</v>
+        <v>127.1878926129015</v>
       </c>
       <c r="H34" t="n">
-        <v>93.88075862815067</v>
+        <v>144.793606987531</v>
       </c>
       <c r="I34" t="n">
-        <v>131.2548228525652</v>
+        <v>182.1676712119455</v>
       </c>
       <c r="J34" t="n">
-        <v>131.2548228525652</v>
+        <v>182.1676712119455</v>
       </c>
       <c r="K34" t="n">
-        <v>226.1094450459902</v>
+        <v>234.3735479586651</v>
       </c>
       <c r="L34" t="n">
-        <v>323.7583399197112</v>
+        <v>369.3775399123821</v>
       </c>
       <c r="M34" t="n">
-        <v>361.7163926105153</v>
+        <v>523.6377675245911</v>
       </c>
       <c r="N34" t="n">
-        <v>466.1635564930895</v>
+        <v>523.6377675245911</v>
       </c>
       <c r="O34" t="n">
-        <v>559.2440973896784</v>
+        <v>523.6377675245911</v>
       </c>
       <c r="P34" t="n">
-        <v>559.2440973896784</v>
+        <v>523.6377675245911</v>
       </c>
       <c r="Q34" t="n">
-        <v>559.2440973896784</v>
+        <v>523.6377675245911</v>
       </c>
       <c r="R34" t="n">
         <v>559.2440973896784</v>
@@ -6914,7 +6914,7 @@
         <v>1027.066278873634</v>
       </c>
       <c r="C35" t="n">
-        <v>864.5298822607665</v>
+        <v>864.5298822607666</v>
       </c>
       <c r="D35" t="n">
         <v>711.103279542315</v>
@@ -6926,37 +6926,37 @@
         <v>340.961093067242</v>
       </c>
       <c r="G35" t="n">
-        <v>144.7807182321595</v>
+        <v>144.7807182321596</v>
       </c>
       <c r="H35" t="n">
         <v>36.74626017744158</v>
       </c>
       <c r="I35" t="n">
-        <v>36.74626017744158</v>
+        <v>102.2839820965607</v>
       </c>
       <c r="J35" t="n">
-        <v>152.5207570681428</v>
+        <v>215.4624898102468</v>
       </c>
       <c r="K35" t="n">
-        <v>256.126142912443</v>
+        <v>319.067875654547</v>
       </c>
       <c r="L35" t="n">
-        <v>710.8611126082825</v>
+        <v>425.8481445766938</v>
       </c>
       <c r="M35" t="n">
-        <v>849.4107746948131</v>
+        <v>546.1607265379032</v>
       </c>
       <c r="N35" t="n">
-        <v>971.9394271979186</v>
+        <v>796.9131105469402</v>
       </c>
       <c r="O35" t="n">
-        <v>1088.78820350926</v>
+        <v>1251.64808024278</v>
       </c>
       <c r="P35" t="n">
-        <v>1543.5231732051</v>
+        <v>1354.850812602331</v>
       </c>
       <c r="Q35" t="n">
-        <v>1635.435533097384</v>
+        <v>1720.012565473912</v>
       </c>
       <c r="R35" t="n">
         <v>1794.03149812662</v>
@@ -7032,25 +7032,25 @@
         <v>36.74626017744158</v>
       </c>
       <c r="P36" t="n">
-        <v>67.66302738714772</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Q36" t="n">
-        <v>67.66302738714772</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="R36" t="n">
-        <v>67.66302738714772</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="S36" t="n">
-        <v>67.66302738714772</v>
+        <v>67.66302738714784</v>
       </c>
       <c r="T36" t="n">
-        <v>67.66302738714772</v>
+        <v>67.66302738714784</v>
       </c>
       <c r="U36" t="n">
-        <v>67.66302738714772</v>
+        <v>67.66302738714784</v>
       </c>
       <c r="V36" t="n">
-        <v>58.66476688980661</v>
+        <v>58.66476688980668</v>
       </c>
       <c r="W36" t="n">
         <v>36.74626017744158</v>
@@ -7069,73 +7069,73 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.87499787932477</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C37" t="n">
-        <v>71.87499787932477</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D37" t="n">
-        <v>71.87499787932477</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E37" t="n">
-        <v>71.87499787932477</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F37" t="n">
-        <v>71.87499787932477</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G37" t="n">
-        <v>71.87499787932477</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H37" t="n">
-        <v>71.87499787932477</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I37" t="n">
-        <v>71.87499787932477</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J37" t="n">
-        <v>71.87499787932477</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K37" t="n">
-        <v>71.87499787932477</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="L37" t="n">
-        <v>71.87499787932477</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="M37" t="n">
-        <v>211.424646450521</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="N37" t="n">
-        <v>211.424646450521</v>
+        <v>43.25497832809538</v>
       </c>
       <c r="O37" t="n">
-        <v>211.424646450521</v>
+        <v>43.25497832809538</v>
       </c>
       <c r="P37" t="n">
-        <v>211.424646450521</v>
+        <v>43.25497832809538</v>
       </c>
       <c r="Q37" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="R37" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="S37" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1161423907477</v>
+        <v>227.116142390748</v>
       </c>
       <c r="U37" t="n">
-        <v>159.3361407966673</v>
+        <v>159.3361407966676</v>
       </c>
       <c r="V37" t="n">
-        <v>117.9981984094148</v>
+        <v>117.998198409415</v>
       </c>
       <c r="W37" t="n">
-        <v>51.23915898113887</v>
+        <v>51.239158981139</v>
       </c>
       <c r="X37" t="n">
-        <v>39.38405693083956</v>
+        <v>39.38405693083963</v>
       </c>
       <c r="Y37" t="n">
         <v>36.74626017744158</v>
@@ -7151,19 +7151,19 @@
         <v>1027.066278873634</v>
       </c>
       <c r="C38" t="n">
-        <v>864.5298822607664</v>
+        <v>864.5298822607667</v>
       </c>
       <c r="D38" t="n">
-        <v>711.1032795423149</v>
+        <v>711.1032795423152</v>
       </c>
       <c r="E38" t="n">
-        <v>535.7149217027468</v>
+        <v>535.714921702747</v>
       </c>
       <c r="F38" t="n">
-        <v>340.9610930672421</v>
+        <v>340.9610930672422</v>
       </c>
       <c r="G38" t="n">
-        <v>144.7807182321594</v>
+        <v>144.7807182321595</v>
       </c>
       <c r="H38" t="n">
         <v>36.74626017744158</v>
@@ -7172,37 +7172,37 @@
         <v>102.2839820965608</v>
       </c>
       <c r="J38" t="n">
-        <v>215.462489810247</v>
+        <v>433.0898335367059</v>
       </c>
       <c r="K38" t="n">
-        <v>521.2116670841922</v>
+        <v>887.8248032325455</v>
       </c>
       <c r="L38" t="n">
-        <v>627.9919360063391</v>
+        <v>1080.630430069892</v>
       </c>
       <c r="M38" t="n">
-        <v>748.3045179675485</v>
+        <v>1200.943012031101</v>
       </c>
       <c r="N38" t="n">
-        <v>1203.039487663388</v>
+        <v>1323.471664534207</v>
       </c>
       <c r="O38" t="n">
-        <v>1319.88826397473</v>
+        <v>1440.320440845549</v>
       </c>
       <c r="P38" t="n">
-        <v>1628.100205581628</v>
+        <v>1543.5231732051</v>
       </c>
       <c r="Q38" t="n">
-        <v>1720.012565473912</v>
+        <v>1635.435533097384</v>
       </c>
       <c r="R38" t="n">
-        <v>1794.031498126619</v>
+        <v>1794.03149812662</v>
       </c>
       <c r="S38" t="n">
         <v>1837.313008872079</v>
       </c>
       <c r="T38" t="n">
-        <v>1834.655082528323</v>
+        <v>1834.655082528324</v>
       </c>
       <c r="U38" t="n">
         <v>1799.209208269155</v>
@@ -7214,10 +7214,10 @@
         <v>1538.489728131347</v>
       </c>
       <c r="X38" t="n">
-        <v>1375.856949707165</v>
+        <v>1375.856949707166</v>
       </c>
       <c r="Y38" t="n">
-        <v>1201.712456337328</v>
+        <v>1201.712456337329</v>
       </c>
     </row>
     <row r="39">
@@ -7272,22 +7272,22 @@
         <v>36.74626017744158</v>
       </c>
       <c r="Q39" t="n">
-        <v>67.66302738714761</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="R39" t="n">
-        <v>67.66302738714761</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="S39" t="n">
-        <v>67.66302738714761</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="T39" t="n">
-        <v>67.66302738714761</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="U39" t="n">
-        <v>67.66302738714761</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="V39" t="n">
-        <v>58.66476688980656</v>
+        <v>58.66476688980661</v>
       </c>
       <c r="W39" t="n">
         <v>36.74626017744158</v>
@@ -7306,73 +7306,73 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.87499787932482</v>
+        <v>71.87499787932478</v>
       </c>
       <c r="C40" t="n">
-        <v>71.87499787932482</v>
+        <v>71.87499787932478</v>
       </c>
       <c r="D40" t="n">
-        <v>71.87499787932482</v>
+        <v>71.87499787932478</v>
       </c>
       <c r="E40" t="n">
-        <v>71.87499787932482</v>
+        <v>71.87499787932478</v>
       </c>
       <c r="F40" t="n">
-        <v>71.87499787932482</v>
+        <v>137.4600624885328</v>
       </c>
       <c r="G40" t="n">
-        <v>121.5794667296364</v>
+        <v>137.4600624885328</v>
       </c>
       <c r="H40" t="n">
-        <v>121.5794667296364</v>
+        <v>198.3472876086216</v>
       </c>
       <c r="I40" t="n">
-        <v>202.2350416995102</v>
+        <v>198.3472876086216</v>
       </c>
       <c r="J40" t="n">
-        <v>202.2350416995102</v>
+        <v>198.3472876086216</v>
       </c>
       <c r="K40" t="n">
-        <v>202.2350416995102</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="L40" t="n">
-        <v>202.2350416995102</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="M40" t="n">
-        <v>202.2350416995102</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="N40" t="n">
-        <v>239.889124291984</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="O40" t="n">
-        <v>239.889124291984</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="P40" t="n">
-        <v>239.889124291984</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="Q40" t="n">
-        <v>239.889124291984</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="R40" t="n">
-        <v>239.889124291984</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="S40" t="n">
-        <v>239.889124291984</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1161423907474</v>
+        <v>227.1161423907477</v>
       </c>
       <c r="U40" t="n">
-        <v>159.3361407966671</v>
+        <v>159.3361407966673</v>
       </c>
       <c r="V40" t="n">
-        <v>117.9981984094147</v>
+        <v>117.9981984094148</v>
       </c>
       <c r="W40" t="n">
-        <v>51.23915898113876</v>
+        <v>51.23915898113888</v>
       </c>
       <c r="X40" t="n">
-        <v>39.38405693083951</v>
+        <v>39.38405693083957</v>
       </c>
       <c r="Y40" t="n">
         <v>36.74626017744158</v>
@@ -7388,52 +7388,52 @@
         <v>1027.066278873634</v>
       </c>
       <c r="C41" t="n">
-        <v>864.5298822607668</v>
+        <v>864.5298822607665</v>
       </c>
       <c r="D41" t="n">
-        <v>711.1032795423154</v>
+        <v>711.103279542315</v>
       </c>
       <c r="E41" t="n">
-        <v>535.7149217027472</v>
+        <v>535.7149217027468</v>
       </c>
       <c r="F41" t="n">
-        <v>340.9610930672425</v>
+        <v>340.961093067242</v>
       </c>
       <c r="G41" t="n">
-        <v>144.7807182321594</v>
+        <v>144.7807182321595</v>
       </c>
       <c r="H41" t="n">
         <v>36.74626017744158</v>
       </c>
       <c r="I41" t="n">
-        <v>36.74626017744158</v>
+        <v>102.2839820965608</v>
       </c>
       <c r="J41" t="n">
-        <v>367.5521116175867</v>
+        <v>215.462489810247</v>
       </c>
       <c r="K41" t="n">
-        <v>822.2870813134261</v>
+        <v>319.0678756545472</v>
       </c>
       <c r="L41" t="n">
-        <v>822.2870813134261</v>
+        <v>469.4948437060967</v>
       </c>
       <c r="M41" t="n">
-        <v>954.8153619384061</v>
+        <v>589.8074256673061</v>
       </c>
       <c r="N41" t="n">
-        <v>1077.344014441512</v>
+        <v>712.3360781704117</v>
       </c>
       <c r="O41" t="n">
-        <v>1532.078984137351</v>
+        <v>1167.071047866251</v>
       </c>
       <c r="P41" t="n">
-        <v>1635.281716496903</v>
+        <v>1270.273780225803</v>
       </c>
       <c r="Q41" t="n">
-        <v>1727.194076389186</v>
+        <v>1635.435533097384</v>
       </c>
       <c r="R41" t="n">
-        <v>1794.031498126619</v>
+        <v>1794.03149812662</v>
       </c>
       <c r="S41" t="n">
         <v>1837.313008872079</v>
@@ -7454,7 +7454,7 @@
         <v>1375.856949707166</v>
       </c>
       <c r="Y41" t="n">
-        <v>1201.712456337329</v>
+        <v>1201.712456337328</v>
       </c>
     </row>
     <row r="42">
@@ -7488,43 +7488,43 @@
         <v>36.74626017744158</v>
       </c>
       <c r="J42" t="n">
-        <v>67.66302738714761</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K42" t="n">
-        <v>67.66302738714761</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="L42" t="n">
-        <v>67.66302738714761</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="M42" t="n">
-        <v>67.66302738714761</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="N42" t="n">
-        <v>67.66302738714761</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="O42" t="n">
-        <v>67.66302738714761</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="P42" t="n">
-        <v>67.66302738714761</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.66302738714761</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="R42" t="n">
-        <v>67.66302738714761</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="S42" t="n">
-        <v>67.66302738714761</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="T42" t="n">
-        <v>67.66302738714761</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="U42" t="n">
-        <v>67.66302738714761</v>
+        <v>67.66302738714772</v>
       </c>
       <c r="V42" t="n">
-        <v>58.66476688980656</v>
+        <v>58.66476688980661</v>
       </c>
       <c r="W42" t="n">
         <v>36.74626017744158</v>
@@ -7564,52 +7564,52 @@
         <v>36.74626017744158</v>
       </c>
       <c r="I43" t="n">
-        <v>36.74626017744158</v>
+        <v>67.36272185919148</v>
       </c>
       <c r="J43" t="n">
-        <v>36.74626017744158</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="K43" t="n">
-        <v>36.74626017744158</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="L43" t="n">
-        <v>177.6766657966219</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="M43" t="n">
-        <v>177.6766657966219</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="N43" t="n">
-        <v>177.6766657966219</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="O43" t="n">
-        <v>230.2827353736312</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="P43" t="n">
-        <v>230.2827353736312</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="Q43" t="n">
-        <v>230.2827353736312</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="R43" t="n">
-        <v>230.2827353736312</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="S43" t="n">
-        <v>239.889124291984</v>
+        <v>239.8891242919843</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1161423907474</v>
+        <v>227.1161423907477</v>
       </c>
       <c r="U43" t="n">
-        <v>159.3361407966671</v>
+        <v>159.3361407966673</v>
       </c>
       <c r="V43" t="n">
-        <v>117.9981984094147</v>
+        <v>117.9981984094148</v>
       </c>
       <c r="W43" t="n">
-        <v>51.23915898113876</v>
+        <v>51.23915898113888</v>
       </c>
       <c r="X43" t="n">
-        <v>39.38405693083951</v>
+        <v>39.38405693083957</v>
       </c>
       <c r="Y43" t="n">
         <v>36.74626017744158</v>
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1027.066278873635</v>
+        <v>1027.066278873634</v>
       </c>
       <c r="C44" t="n">
-        <v>864.529882260767</v>
+        <v>864.5298822607665</v>
       </c>
       <c r="D44" t="n">
-        <v>711.1032795423157</v>
+        <v>711.103279542315</v>
       </c>
       <c r="E44" t="n">
-        <v>535.7149217027472</v>
+        <v>535.7149217027466</v>
       </c>
       <c r="F44" t="n">
-        <v>340.9610930672425</v>
+        <v>340.9610930672417</v>
       </c>
       <c r="G44" t="n">
-        <v>144.7807182321595</v>
+        <v>144.7807182321596</v>
       </c>
       <c r="H44" t="n">
         <v>36.74626017744158</v>
       </c>
       <c r="I44" t="n">
-        <v>36.74626017744158</v>
+        <v>102.2839820965607</v>
       </c>
       <c r="J44" t="n">
-        <v>149.9247678911277</v>
+        <v>215.4624898102468</v>
       </c>
       <c r="K44" t="n">
-        <v>604.6597375869673</v>
+        <v>319.0678756545469</v>
       </c>
       <c r="L44" t="n">
-        <v>711.440006509114</v>
+        <v>425.8481445766938</v>
       </c>
       <c r="M44" t="n">
-        <v>1166.174976204954</v>
+        <v>546.1607265379031</v>
       </c>
       <c r="N44" t="n">
-        <v>1166.174976204954</v>
+        <v>668.6893790410086</v>
       </c>
       <c r="O44" t="n">
-        <v>1283.023752516295</v>
+        <v>1123.424348736848</v>
       </c>
       <c r="P44" t="n">
-        <v>1543.5231732051</v>
+        <v>1354.850812602331</v>
       </c>
       <c r="Q44" t="n">
-        <v>1635.435533097384</v>
+        <v>1720.012565473912</v>
       </c>
       <c r="R44" t="n">
         <v>1794.03149812662</v>
@@ -7713,55 +7713,55 @@
         <v>36.74626017744158</v>
       </c>
       <c r="F45" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="G45" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="H45" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="I45" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="J45" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="K45" t="n">
-        <v>36.74626017744158</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="L45" t="n">
-        <v>67.66302738714772</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="M45" t="n">
-        <v>67.66302738714772</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="N45" t="n">
-        <v>67.66302738714772</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="O45" t="n">
-        <v>67.66302738714772</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="P45" t="n">
-        <v>67.66302738714772</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="Q45" t="n">
-        <v>67.66302738714772</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="R45" t="n">
-        <v>67.66302738714772</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="S45" t="n">
-        <v>67.66302738714772</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="T45" t="n">
-        <v>67.66302738714772</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="U45" t="n">
-        <v>67.66302738714772</v>
+        <v>67.66302738714789</v>
       </c>
       <c r="V45" t="n">
-        <v>58.66476688980661</v>
+        <v>58.66476688980671</v>
       </c>
       <c r="W45" t="n">
         <v>36.74626017744158</v>
@@ -7780,73 +7780,73 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.96224854816333</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C46" t="n">
-        <v>101.7529913531</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D46" t="n">
-        <v>101.7529913531</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E46" t="n">
-        <v>101.7529913531</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F46" t="n">
-        <v>101.7529913531</v>
+        <v>48.64185535171104</v>
       </c>
       <c r="G46" t="n">
-        <v>101.7529913531</v>
+        <v>98.34632420202249</v>
       </c>
       <c r="H46" t="n">
-        <v>101.7529913531</v>
+        <v>159.2335493221112</v>
       </c>
       <c r="I46" t="n">
-        <v>101.7529913531</v>
+        <v>239.8891242919849</v>
       </c>
       <c r="J46" t="n">
-        <v>101.7529913531</v>
+        <v>239.8891242919849</v>
       </c>
       <c r="K46" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919849</v>
       </c>
       <c r="L46" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919849</v>
       </c>
       <c r="M46" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919849</v>
       </c>
       <c r="N46" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919849</v>
       </c>
       <c r="O46" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919849</v>
       </c>
       <c r="P46" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919849</v>
       </c>
       <c r="Q46" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919849</v>
       </c>
       <c r="R46" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919849</v>
       </c>
       <c r="S46" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919849</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1161423907477</v>
+        <v>227.1161423907482</v>
       </c>
       <c r="U46" t="n">
-        <v>159.3361407966673</v>
+        <v>159.3361407966677</v>
       </c>
       <c r="V46" t="n">
-        <v>117.9981984094148</v>
+        <v>117.9981984094151</v>
       </c>
       <c r="W46" t="n">
-        <v>51.23915898113887</v>
+        <v>51.23915898113906</v>
       </c>
       <c r="X46" t="n">
-        <v>39.38405693083956</v>
+        <v>39.38405693083966</v>
       </c>
       <c r="Y46" t="n">
         <v>36.74626017744158</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>542.9595789155856</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>584.3675935406823</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>568.5510017355793</v>
+        <v>525.730611191671</v>
       </c>
       <c r="O26" t="n">
-        <v>163.5527000644487</v>
+        <v>398.7598871359954</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9948,34 +9948,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.71955400614097</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L27" t="n">
-        <v>52.05064111562927</v>
+        <v>52.0506411156292</v>
       </c>
       <c r="M27" t="n">
-        <v>44.85432453608078</v>
+        <v>44.8543245360807</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>34.21620827668121</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>266.460211796134</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>55.62466529233102</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>78.15265312299748</v>
       </c>
       <c r="R27" t="n">
-        <v>59.17817075471706</v>
+        <v>38.16750298409823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,25 +10033,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
-        <v>77.67194102076722</v>
+        <v>77.67194102076719</v>
       </c>
       <c r="L28" t="n">
-        <v>74.84944336390258</v>
+        <v>74.84944336390254</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N28" t="n">
-        <v>115.1550494290117</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O28" t="n">
-        <v>79.46394233070271</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P28" t="n">
-        <v>83.63942497583892</v>
+        <v>140.2500785060828</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>102.8816634704623</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L29" t="n">
-        <v>486.70213344565</v>
+        <v>541.6380693542553</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>423.0641815958774</v>
       </c>
       <c r="N29" t="n">
-        <v>568.5510017355793</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>495.0402356415689</v>
+        <v>99.1743214526284</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
-        <v>85.43134583487716</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.719554006141</v>
+        <v>76.71955400614097</v>
       </c>
       <c r="K30" t="n">
-        <v>66.98372024565214</v>
+        <v>283.9068431182716</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>52.0506411156292</v>
       </c>
       <c r="M30" t="n">
-        <v>44.85432453608078</v>
+        <v>44.8543245360807</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>34.21620827668121</v>
       </c>
       <c r="O30" t="n">
-        <v>49.53708892351364</v>
+        <v>49.53708892351356</v>
       </c>
       <c r="P30" t="n">
-        <v>55.62466529233108</v>
+        <v>55.62466529233102</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>78.15265312299748</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>103.6474930670414</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>74.84944336390254</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>76.24414745277525</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>81.14691719528618</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>421.3890363425141</v>
+        <v>45.65256215838183</v>
       </c>
       <c r="L32" t="n">
-        <v>203.6518706598598</v>
+        <v>541.6380693542557</v>
       </c>
       <c r="M32" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N32" t="n">
-        <v>568.5510017355793</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10425,28 +10425,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.71955400614097</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>283.9068431182725</v>
       </c>
       <c r="L33" t="n">
-        <v>52.05064111562927</v>
+        <v>52.0506411156292</v>
       </c>
       <c r="M33" t="n">
-        <v>44.85432453608078</v>
+        <v>44.8543245360807</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>34.21620827668121</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>49.53708892351356</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>55.62466529233102</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>78.15265312299748</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10507,25 +10507,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>130.4051498558375</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>79.46394233070266</v>
       </c>
       <c r="P34" t="n">
-        <v>83.63942497583892</v>
+        <v>83.63942497583889</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.931829589997381</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>358.723446150475</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>18.42129305588003</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>129.5189207130621</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>341.2991852368665</v>
       </c>
       <c r="P35" t="n">
-        <v>355.0830680164526</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
-        <v>85.43134583487716</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,25 +10668,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>52.0506411156292</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>34.21620827668121</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>49.53708892351356</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>55.62466529233102</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>78.15265312299748</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10741,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>77.67194102076719</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>22.83877799234745</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>74.55696774955973</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>79.46394233070266</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>421.3890363425141</v>
+        <v>354.6763473247872</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>86.89430092444391</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>335.5619365583171</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>280.533779880546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>20.79539538798221</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>34.21620827668121</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>55.62466529233102</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>78.15265312299748</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10978,28 +10978,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>119.6333922160831</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>74.84944336390254</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>76.24414745277525</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>79.46394233070266</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>83.63942497583889</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>354.6763473247872</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>109.3445309366637</v>
+        <v>44.08757487818445</v>
       </c>
       <c r="M41" t="n">
-        <v>12.3390895593642</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>341.2991852368665</v>
+        <v>341.2991852368664</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,25 +11142,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>52.0506411156292</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>44.8543245360807</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>34.21620827668121</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>55.62466529233102</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.79484768680723</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11215,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>77.67194102076719</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>74.84944336390254</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>76.24414745277525</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>79.46394233070266</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>83.63942497583889</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>354.6763473247872</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>337.8003916511416</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>37.75931013078505</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>341.2991852368666</v>
       </c>
       <c r="P44" t="n">
-        <v>158.8855437669224</v>
+        <v>129.5189207130623</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
-        <v>85.43134583487716</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,25 +11379,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>52.0506411156292</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>44.8543245360807</v>
       </c>
       <c r="N45" t="n">
-        <v>34.2162082766813</v>
+        <v>34.21620827668121</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>49.53708892351356</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>55.62466529233102</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.17817075471706</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,25 +11455,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>77.67194102076719</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>74.84944336390254</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>76.24414745277525</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>37.51931614585884</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>83.63942497583889</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.07856436180478</v>
+        <v>166.6836960328513</v>
       </c>
       <c r="C11" t="n">
-        <v>16.08988131948652</v>
+        <v>162.5398582301543</v>
       </c>
       <c r="D11" t="n">
-        <v>24.52802261176617</v>
+        <v>153.5211622746822</v>
       </c>
       <c r="E11" t="n">
-        <v>175.2632998445877</v>
+        <v>28.81332293392006</v>
       </c>
       <c r="F11" t="n">
-        <v>47.9851390218972</v>
+        <v>194.4351159325649</v>
       </c>
       <c r="G11" t="n">
-        <v>195.8473966701474</v>
+        <v>49.39741975947976</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5829390575859</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.260172663732883</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>36.72024109999225</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>118.0349185126516</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>143.3350179906085</v>
       </c>
       <c r="X11" t="n">
-        <v>162.6352762233551</v>
+        <v>162.6352762233552</v>
       </c>
       <c r="Y11" t="n">
         <v>174.0318740195539</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.07856436180489</v>
+        <v>174.5285412724727</v>
       </c>
       <c r="C14" t="n">
-        <v>16.08988131948664</v>
+        <v>162.5398582301544</v>
       </c>
       <c r="D14" t="n">
-        <v>153.5211622746823</v>
+        <v>153.5211622746824</v>
       </c>
       <c r="E14" t="n">
-        <v>175.2632998445879</v>
+        <v>46.27016018167174</v>
       </c>
       <c r="F14" t="n">
-        <v>183.4768947823007</v>
+        <v>47.98513902189737</v>
       </c>
       <c r="G14" t="n">
-        <v>195.8473966701476</v>
+        <v>49.3974197594799</v>
       </c>
       <c r="H14" t="n">
         <v>108.5829390575861</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.260172663732988</v>
+        <v>4.260172663733051</v>
       </c>
       <c r="U14" t="n">
-        <v>36.72024109999236</v>
+        <v>36.72024109999242</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>118.0349185126518</v>
       </c>
       <c r="W14" t="n">
-        <v>143.3350179906086</v>
+        <v>143.3350179906087</v>
       </c>
       <c r="X14" t="n">
-        <v>162.6352762233552</v>
+        <v>16.18529931268759</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.5818971088863</v>
+        <v>174.0318740195541</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-4.295346919579643e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19146.91578768261</v>
+        <v>19146.9157876826</v>
       </c>
       <c r="C2" t="n">
         <v>19146.91578768261</v>
@@ -26320,7 +26320,7 @@
         <v>19146.91578768261</v>
       </c>
       <c r="E2" t="n">
-        <v>16732.16995299419</v>
+        <v>16732.16995299418</v>
       </c>
       <c r="F2" t="n">
         <v>16732.16995299419</v>
@@ -26332,19 +26332,19 @@
         <v>19190.60151235455</v>
       </c>
       <c r="I2" t="n">
-        <v>19190.60151235456</v>
+        <v>19190.60151235455</v>
       </c>
       <c r="J2" t="n">
-        <v>19190.60151235457</v>
+        <v>19190.60151235455</v>
       </c>
       <c r="K2" t="n">
         <v>19190.60151235457</v>
       </c>
       <c r="L2" t="n">
-        <v>19190.60151235455</v>
+        <v>19190.60151235456</v>
       </c>
       <c r="M2" t="n">
-        <v>19190.60151235458</v>
+        <v>19190.60151235457</v>
       </c>
       <c r="N2" t="n">
         <v>19190.60151235458</v>
@@ -26353,7 +26353,7 @@
         <v>19190.60151235457</v>
       </c>
       <c r="P2" t="n">
-        <v>19190.60151235458</v>
+        <v>19190.60151235456</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>320303.8499715894</v>
+        <v>320303.8499715895</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86866.35124606881</v>
+        <v>86866.35124606885</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>172101.8825461392</v>
       </c>
       <c r="K3" t="n">
-        <v>3.554025450004982e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86866.35124606866</v>
+        <v>86866.35124606873</v>
       </c>
       <c r="M3" t="n">
-        <v>34974.9581781489</v>
+        <v>34974.95817814886</v>
       </c>
       <c r="N3" t="n">
         <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>51921.40132280772</v>
+        <v>51921.40132280769</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>437137.1652114342</v>
       </c>
       <c r="E4" t="n">
-        <v>337492.0798944828</v>
+        <v>337492.0798944827</v>
       </c>
       <c r="F4" t="n">
         <v>337492.0798944827</v>
       </c>
       <c r="G4" t="n">
-        <v>393534.1149340968</v>
+        <v>393534.1149340967</v>
       </c>
       <c r="H4" t="n">
         <v>393534.1149340967</v>
       </c>
       <c r="I4" t="n">
-        <v>393534.1149340968</v>
+        <v>393534.1149340967</v>
       </c>
       <c r="J4" t="n">
         <v>401705.6227511126</v>
@@ -26448,16 +26448,16 @@
         <v>401705.6227511126</v>
       </c>
       <c r="M4" t="n">
-        <v>397296.6362691747</v>
+        <v>397296.6362691746</v>
       </c>
       <c r="N4" t="n">
-        <v>397296.6362691747</v>
+        <v>397296.6362691746</v>
       </c>
       <c r="O4" t="n">
-        <v>397296.6362691747</v>
+        <v>397296.6362691746</v>
       </c>
       <c r="P4" t="n">
-        <v>397296.6362691747</v>
+        <v>397296.6362691746</v>
       </c>
     </row>
     <row r="5">
@@ -26491,7 +26491,7 @@
         <v>38980.93874509061</v>
       </c>
       <c r="J5" t="n">
-        <v>54241.18391543764</v>
+        <v>54241.18391543765</v>
       </c>
       <c r="K5" t="n">
         <v>54241.18391543766</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-451617.8494237516</v>
+        <v>-451622.2179962188</v>
       </c>
       <c r="C6" t="n">
-        <v>-451617.8494237515</v>
+        <v>-451622.2179962188</v>
       </c>
       <c r="D6" t="n">
-        <v>-451617.8494237515</v>
+        <v>-451622.2179962188</v>
       </c>
       <c r="E6" t="n">
-        <v>-670916.2395545364</v>
+        <v>-671162.0827104724</v>
       </c>
       <c r="F6" t="n">
-        <v>-350612.389582947</v>
+        <v>-350858.2327388829</v>
       </c>
       <c r="G6" t="n">
         <v>-500190.8034129016</v>
@@ -26546,22 +26546,22 @@
         <v>-608858.0877003348</v>
       </c>
       <c r="K6" t="n">
-        <v>-436756.2051541959</v>
+        <v>-436756.2051541958</v>
       </c>
       <c r="L6" t="n">
         <v>-523622.5564002644</v>
       </c>
       <c r="M6" t="n">
-        <v>-462093.4054530867</v>
+        <v>-462093.4054530865</v>
       </c>
       <c r="N6" t="n">
-        <v>-427118.4472749378</v>
+        <v>-427118.4472749377</v>
       </c>
       <c r="O6" t="n">
-        <v>-479039.8485977455</v>
+        <v>-479039.8485977454</v>
       </c>
       <c r="P6" t="n">
-        <v>-427118.4472749377</v>
+        <v>-427118.4472749375</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>173.4846907110955</v>
       </c>
       <c r="M2" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="N2" t="n">
         <v>217.2033884337817</v>
@@ -26725,7 +26725,7 @@
         <v>217.2033884337817</v>
       </c>
       <c r="P2" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.5955560102002</v>
+        <v>129.5955560102004</v>
       </c>
       <c r="F3" t="n">
-        <v>129.5955560102002</v>
+        <v>129.5955560102004</v>
       </c>
       <c r="G3" t="n">
-        <v>129.5955560102002</v>
+        <v>129.5955560102004</v>
       </c>
       <c r="H3" t="n">
-        <v>129.5955560102002</v>
+        <v>129.5955560102004</v>
       </c>
       <c r="I3" t="n">
-        <v>129.5955560102002</v>
+        <v>129.5955560102004</v>
       </c>
       <c r="J3" t="n">
-        <v>129.5955560102002</v>
+        <v>129.5955560102004</v>
       </c>
       <c r="K3" t="n">
-        <v>129.5955560102002</v>
+        <v>129.5955560102004</v>
       </c>
       <c r="L3" t="n">
-        <v>129.5955560102002</v>
+        <v>129.5955560102004</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5955560102002</v>
+        <v>129.5955560102004</v>
       </c>
       <c r="N3" t="n">
-        <v>129.5955560102002</v>
+        <v>129.5955560102004</v>
       </c>
       <c r="O3" t="n">
-        <v>129.5955560102002</v>
+        <v>129.5955560102004</v>
       </c>
       <c r="P3" t="n">
-        <v>129.5955560102002</v>
+        <v>129.5955560102004</v>
       </c>
     </row>
     <row r="4">
@@ -26811,7 +26811,7 @@
         <v>146.4499769106677</v>
       </c>
       <c r="J4" t="n">
-        <v>605.7782291286874</v>
+        <v>605.7782291286875</v>
       </c>
       <c r="K4" t="n">
         <v>605.7782291286875</v>
@@ -26820,16 +26820,16 @@
         <v>605.7782291286875</v>
       </c>
       <c r="M4" t="n">
-        <v>459.3282522180197</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="N4" t="n">
-        <v>459.3282522180197</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="O4" t="n">
-        <v>459.3282522180197</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="P4" t="n">
-        <v>459.3282522180197</v>
+        <v>459.3282522180198</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>108.582939057586</v>
+        <v>108.5829390575861</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.90175165350965</v>
+        <v>64.90175165350962</v>
       </c>
       <c r="K2" t="n">
-        <v>4.442531812506228e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.5829390575858</v>
+        <v>108.5829390575859</v>
       </c>
       <c r="M2" t="n">
-        <v>43.71869772268613</v>
+        <v>43.71869772268607</v>
       </c>
       <c r="N2" t="n">
         <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>64.90175165350965</v>
+        <v>64.90175165350962</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.5955560102002</v>
+        <v>129.5955560102004</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>459.3282522180197</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.582939057586</v>
+        <v>108.5829390575861</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>64.90175165350965</v>
+        <v>64.90175165350962</v>
       </c>
       <c r="P2" t="n">
-        <v>4.442531812506228e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28111,31 +28111,31 @@
         <v>215.5745628503664</v>
       </c>
       <c r="J11" t="n">
-        <v>139.8320883086711</v>
+        <v>102.8816634704623</v>
       </c>
       <c r="K11" t="n">
+        <v>183.8902561618722</v>
+      </c>
+      <c r="L11" t="n">
         <v>215.5745628503664</v>
-      </c>
-      <c r="L11" t="n">
-        <v>109.3445309366637</v>
       </c>
       <c r="M11" t="n">
         <v>215.5745628503664</v>
       </c>
       <c r="N11" t="n">
+        <v>93.43707277407906</v>
+      </c>
+      <c r="O11" t="n">
+        <v>99.1743214526284</v>
+      </c>
+      <c r="P11" t="n">
         <v>215.5745628503664</v>
       </c>
-      <c r="O11" t="n">
-        <v>99.1743214526285</v>
-      </c>
-      <c r="P11" t="n">
-        <v>112.9582042322146</v>
-      </c>
       <c r="Q11" t="n">
+        <v>124.3626208658183</v>
+      </c>
+      <c r="R11" t="n">
         <v>215.5745628503664</v>
-      </c>
-      <c r="R11" t="n">
-        <v>142.4367897946829</v>
       </c>
       <c r="S11" t="n">
         <v>215.5745628503664</v>
@@ -28187,31 +28187,31 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I12" t="n">
-        <v>106.5488789493442</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J12" t="n">
-        <v>76.719554006141</v>
+        <v>76.71955400614097</v>
       </c>
       <c r="K12" t="n">
-        <v>66.98372024565214</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L12" t="n">
-        <v>52.05064111562927</v>
+        <v>52.0506411156292</v>
       </c>
       <c r="M12" t="n">
-        <v>44.85432453608078</v>
+        <v>44.8543245360807</v>
       </c>
       <c r="N12" t="n">
-        <v>34.2162082766813</v>
+        <v>34.21620827668121</v>
       </c>
       <c r="O12" t="n">
-        <v>49.53708892351364</v>
+        <v>49.53708892351356</v>
       </c>
       <c r="P12" t="n">
-        <v>55.62466529233108</v>
+        <v>90.90901723394009</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.15265312299752</v>
+        <v>78.15265312299748</v>
       </c>
       <c r="R12" t="n">
         <v>101.057477245434</v>
@@ -28245,49 +28245,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.719814997536</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="C13" t="n">
-        <v>182.4874646236964</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="D13" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9968542415478</v>
+        <v>170.9491964811876</v>
       </c>
       <c r="H13" t="n">
-        <v>215.5745628503664</v>
+        <v>155.7011408377324</v>
       </c>
       <c r="I13" t="n">
         <v>135.7331106864344</v>
       </c>
       <c r="J13" t="n">
-        <v>86.66140878686463</v>
+        <v>86.66140878686461</v>
       </c>
       <c r="K13" t="n">
-        <v>77.67194102076722</v>
+        <v>77.67194102076719</v>
       </c>
       <c r="L13" t="n">
-        <v>215.5745628503664</v>
+        <v>74.84944336390254</v>
       </c>
       <c r="M13" t="n">
-        <v>76.24414745277529</v>
+        <v>76.24414745277525</v>
       </c>
       <c r="N13" t="n">
-        <v>67.98250497112161</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O13" t="n">
-        <v>79.46394233070271</v>
+        <v>79.46394233070266</v>
       </c>
       <c r="P13" t="n">
-        <v>83.63942497583892</v>
+        <v>83.63942497583889</v>
       </c>
       <c r="Q13" t="n">
         <v>103.5288848663845</v>
@@ -28348,25 +28348,25 @@
         <v>215.5745628503663</v>
       </c>
       <c r="J14" t="n">
-        <v>102.8816634704623</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="K14" t="n">
-        <v>112.5514835405492</v>
+        <v>192.3305989150005</v>
       </c>
       <c r="L14" t="n">
-        <v>195.7013934871422</v>
+        <v>109.3445309366636</v>
       </c>
       <c r="M14" t="n">
+        <v>95.67552786690344</v>
+      </c>
+      <c r="N14" t="n">
+        <v>93.43707277407906</v>
+      </c>
+      <c r="O14" t="n">
         <v>215.5745628503663</v>
       </c>
-      <c r="N14" t="n">
-        <v>93.43707277407916</v>
-      </c>
-      <c r="O14" t="n">
-        <v>99.1743214526285</v>
-      </c>
       <c r="P14" t="n">
-        <v>215.5745628503663</v>
+        <v>112.9582042322145</v>
       </c>
       <c r="Q14" t="n">
         <v>215.5745628503663</v>
@@ -28424,34 +28424,34 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I15" t="n">
-        <v>71.26452700773518</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J15" t="n">
-        <v>76.719554006141</v>
+        <v>76.71955400614097</v>
       </c>
       <c r="K15" t="n">
-        <v>66.98372024565214</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L15" t="n">
-        <v>52.05064111562927</v>
+        <v>52.0506411156292</v>
       </c>
       <c r="M15" t="n">
-        <v>44.85432453608078</v>
+        <v>44.8543245360807</v>
       </c>
       <c r="N15" t="n">
-        <v>34.2162082766813</v>
+        <v>34.21620827668121</v>
       </c>
       <c r="O15" t="n">
-        <v>49.53708892351364</v>
+        <v>49.53708892351356</v>
       </c>
       <c r="P15" t="n">
-        <v>55.62466529233108</v>
+        <v>55.62466529233102</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.15265312299752</v>
+        <v>113.437005064607</v>
       </c>
       <c r="R15" t="n">
-        <v>136.3418291870433</v>
+        <v>101.057477245434</v>
       </c>
       <c r="S15" t="n">
         <v>146.0937828749041</v>
@@ -28488,10 +28488,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>151.5411742405149</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="E16" t="n">
-        <v>150.4889240962943</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="F16" t="n">
         <v>150.9558484244806</v>
@@ -28506,25 +28506,25 @@
         <v>135.7331106864344</v>
       </c>
       <c r="J16" t="n">
-        <v>86.66140878686463</v>
+        <v>172.7085777028001</v>
       </c>
       <c r="K16" t="n">
-        <v>77.67194102076722</v>
+        <v>77.67194102076719</v>
       </c>
       <c r="L16" t="n">
-        <v>215.5745628503663</v>
+        <v>74.84944336390254</v>
       </c>
       <c r="M16" t="n">
-        <v>76.24414745277529</v>
+        <v>76.24414745277525</v>
       </c>
       <c r="N16" t="n">
-        <v>142.4235817645163</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O16" t="n">
-        <v>79.46394233070271</v>
+        <v>79.46394233070266</v>
       </c>
       <c r="P16" t="n">
-        <v>83.63942497583892</v>
+        <v>83.63942497583889</v>
       </c>
       <c r="Q16" t="n">
         <v>103.5288848663845</v>
@@ -28582,34 +28582,34 @@
         <v>324.1575019079523</v>
       </c>
       <c r="I17" t="n">
-        <v>261.8009880091797</v>
+        <v>297.453646234228</v>
       </c>
       <c r="J17" t="n">
-        <v>102.8816634704623</v>
+        <v>213.6789821560817</v>
       </c>
       <c r="K17" t="n">
-        <v>112.5514835405492</v>
+        <v>112.5514835405491</v>
       </c>
       <c r="L17" t="n">
-        <v>109.3445309366637</v>
+        <v>109.3445309366636</v>
       </c>
       <c r="M17" t="n">
-        <v>95.67552786690354</v>
+        <v>95.67552786690344</v>
       </c>
       <c r="N17" t="n">
-        <v>93.43707277407916</v>
+        <v>93.43707277407906</v>
       </c>
       <c r="O17" t="n">
-        <v>99.1743214526285</v>
+        <v>99.1743214526284</v>
       </c>
       <c r="P17" t="n">
-        <v>112.9582042322146</v>
+        <v>112.9582042322145</v>
       </c>
       <c r="Q17" t="n">
         <v>124.3626208658183</v>
       </c>
       <c r="R17" t="n">
-        <v>288.8867667053506</v>
+        <v>142.4367897946829</v>
       </c>
       <c r="S17" t="n">
         <v>319.9346676217633</v>
@@ -28661,31 +28661,31 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I18" t="n">
-        <v>71.26452700773518</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J18" t="n">
-        <v>76.719554006141</v>
+        <v>76.71955400614097</v>
       </c>
       <c r="K18" t="n">
-        <v>66.98372024565214</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L18" t="n">
-        <v>52.05064111562927</v>
+        <v>52.0506411156292</v>
       </c>
       <c r="M18" t="n">
-        <v>44.85432453608078</v>
+        <v>44.8543245360807</v>
       </c>
       <c r="N18" t="n">
-        <v>34.2162082766813</v>
+        <v>34.21620827668121</v>
       </c>
       <c r="O18" t="n">
-        <v>49.53708892351364</v>
+        <v>49.53708892351356</v>
       </c>
       <c r="P18" t="n">
-        <v>55.62466529233108</v>
+        <v>55.62466529233102</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.15265312299752</v>
+        <v>78.15265312299748</v>
       </c>
       <c r="R18" t="n">
         <v>101.057477245434</v>
@@ -28743,25 +28743,25 @@
         <v>135.7331106864344</v>
       </c>
       <c r="J19" t="n">
-        <v>86.66140878686463</v>
+        <v>86.66140878686461</v>
       </c>
       <c r="K19" t="n">
-        <v>77.67194102076722</v>
+        <v>77.67194102076719</v>
       </c>
       <c r="L19" t="n">
-        <v>74.84944336390258</v>
+        <v>74.84944336390254</v>
       </c>
       <c r="M19" t="n">
-        <v>76.24414745277529</v>
+        <v>76.24414745277525</v>
       </c>
       <c r="N19" t="n">
-        <v>67.98250497112161</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O19" t="n">
-        <v>79.46394233070271</v>
+        <v>79.46394233070266</v>
       </c>
       <c r="P19" t="n">
-        <v>83.63942497583892</v>
+        <v>83.63942497583889</v>
       </c>
       <c r="Q19" t="n">
         <v>103.5288848663845</v>
@@ -28819,43 +28819,43 @@
         <v>324.1575019079523</v>
       </c>
       <c r="I20" t="n">
-        <v>151.0036693235603</v>
+        <v>297.453646234228</v>
       </c>
       <c r="J20" t="n">
-        <v>102.8816634704623</v>
+        <v>249.33164038113</v>
       </c>
       <c r="K20" t="n">
-        <v>223.3488022261686</v>
+        <v>259.0014604512169</v>
       </c>
       <c r="L20" t="n">
-        <v>109.3445309366637</v>
+        <v>249.8773370630619</v>
       </c>
       <c r="M20" t="n">
-        <v>95.67552786690354</v>
+        <v>95.67552786690344</v>
       </c>
       <c r="N20" t="n">
-        <v>93.43707277407916</v>
+        <v>93.43707277407906</v>
       </c>
       <c r="O20" t="n">
-        <v>99.1743214526285</v>
+        <v>99.1743214526284</v>
       </c>
       <c r="P20" t="n">
-        <v>112.9582042322146</v>
+        <v>112.9582042322145</v>
       </c>
       <c r="Q20" t="n">
-        <v>270.812597776486</v>
+        <v>124.3626208658183</v>
       </c>
       <c r="R20" t="n">
         <v>142.4367897946829</v>
       </c>
       <c r="S20" t="n">
-        <v>319.9346676217633</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T20" t="n">
-        <v>324.1575019079523</v>
+        <v>219.8347355140993</v>
       </c>
       <c r="U20" t="n">
-        <v>324.1575019079523</v>
+        <v>252.2948039503587</v>
       </c>
       <c r="V20" t="n">
         <v>324.1575019079523</v>
@@ -28898,31 +28898,31 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I21" t="n">
-        <v>71.26452700773518</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J21" t="n">
-        <v>76.719554006141</v>
+        <v>76.71955400614097</v>
       </c>
       <c r="K21" t="n">
-        <v>66.98372024565214</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L21" t="n">
-        <v>52.05064111562927</v>
+        <v>52.0506411156292</v>
       </c>
       <c r="M21" t="n">
-        <v>44.85432453608078</v>
+        <v>44.8543245360807</v>
       </c>
       <c r="N21" t="n">
-        <v>34.2162082766813</v>
+        <v>34.21620827668121</v>
       </c>
       <c r="O21" t="n">
-        <v>49.53708892351364</v>
+        <v>49.53708892351356</v>
       </c>
       <c r="P21" t="n">
-        <v>55.62466529233108</v>
+        <v>55.62466529233102</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.15265312299752</v>
+        <v>78.15265312299748</v>
       </c>
       <c r="R21" t="n">
         <v>101.057477245434</v>
@@ -28980,25 +28980,25 @@
         <v>135.7331106864344</v>
       </c>
       <c r="J22" t="n">
-        <v>86.66140878686463</v>
+        <v>86.66140878686461</v>
       </c>
       <c r="K22" t="n">
-        <v>77.67194102076722</v>
+        <v>77.67194102076719</v>
       </c>
       <c r="L22" t="n">
-        <v>74.84944336390258</v>
+        <v>74.84944336390254</v>
       </c>
       <c r="M22" t="n">
-        <v>76.24414745277529</v>
+        <v>76.24414745277525</v>
       </c>
       <c r="N22" t="n">
-        <v>67.98250497112161</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O22" t="n">
-        <v>79.46394233070271</v>
+        <v>79.46394233070266</v>
       </c>
       <c r="P22" t="n">
-        <v>83.63942497583892</v>
+        <v>83.63942497583889</v>
       </c>
       <c r="Q22" t="n">
         <v>103.5288848663845</v>
@@ -29053,31 +29053,31 @@
         <v>324.1575019079523</v>
       </c>
       <c r="H23" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="I23" t="n">
         <v>297.453646234228</v>
       </c>
       <c r="J23" t="n">
-        <v>249.3316403811301</v>
+        <v>249.33164038113</v>
       </c>
       <c r="K23" t="n">
-        <v>259.0014604512169</v>
+        <v>112.5514835405491</v>
       </c>
       <c r="L23" t="n">
-        <v>109.3445309366637</v>
+        <v>109.3445309366636</v>
       </c>
       <c r="M23" t="n">
-        <v>95.67552786690354</v>
+        <v>95.67552786690344</v>
       </c>
       <c r="N23" t="n">
-        <v>93.43707277407916</v>
+        <v>204.2343914596985</v>
       </c>
       <c r="O23" t="n">
-        <v>99.1743214526285</v>
+        <v>99.1743214526284</v>
       </c>
       <c r="P23" t="n">
-        <v>112.9582042322146</v>
+        <v>112.9582042322145</v>
       </c>
       <c r="Q23" t="n">
         <v>124.3626208658183</v>
@@ -29089,7 +29089,7 @@
         <v>173.4846907110955</v>
       </c>
       <c r="T23" t="n">
-        <v>288.504843682904</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="U23" t="n">
         <v>324.1575019079523</v>
@@ -29135,31 +29135,31 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I24" t="n">
-        <v>71.26452700773518</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J24" t="n">
-        <v>76.719554006141</v>
+        <v>76.71955400614097</v>
       </c>
       <c r="K24" t="n">
-        <v>66.98372024565214</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L24" t="n">
-        <v>52.05064111562927</v>
+        <v>52.0506411156292</v>
       </c>
       <c r="M24" t="n">
-        <v>44.85432453608078</v>
+        <v>44.8543245360807</v>
       </c>
       <c r="N24" t="n">
-        <v>34.2162082766813</v>
+        <v>34.21620827668121</v>
       </c>
       <c r="O24" t="n">
-        <v>49.53708892351364</v>
+        <v>49.53708892351356</v>
       </c>
       <c r="P24" t="n">
-        <v>55.62466529233108</v>
+        <v>55.62466529233102</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.15265312299752</v>
+        <v>78.15265312299748</v>
       </c>
       <c r="R24" t="n">
         <v>101.057477245434</v>
@@ -29217,25 +29217,25 @@
         <v>135.7331106864344</v>
       </c>
       <c r="J25" t="n">
-        <v>86.66140878686463</v>
+        <v>86.66140878686461</v>
       </c>
       <c r="K25" t="n">
-        <v>77.67194102076722</v>
+        <v>77.67194102076719</v>
       </c>
       <c r="L25" t="n">
-        <v>74.84944336390258</v>
+        <v>74.84944336390254</v>
       </c>
       <c r="M25" t="n">
-        <v>76.24414745277529</v>
+        <v>76.24414745277525</v>
       </c>
       <c r="N25" t="n">
-        <v>67.98250497112161</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O25" t="n">
-        <v>79.46394233070271</v>
+        <v>79.46394233070266</v>
       </c>
       <c r="P25" t="n">
-        <v>83.63942497583892</v>
+        <v>83.63942497583889</v>
       </c>
       <c r="Q25" t="n">
         <v>103.5288848663845</v>
@@ -29299,16 +29299,16 @@
         <v>173.4846907110955</v>
       </c>
       <c r="K26" t="n">
-        <v>135.3035120264481</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="O26" t="n">
         <v>173.4846907110955</v>
@@ -29320,7 +29320,7 @@
         <v>173.4846907110955</v>
       </c>
       <c r="R26" t="n">
-        <v>173.4846907110955</v>
+        <v>57.00544395980569</v>
       </c>
       <c r="S26" t="n">
         <v>173.4846907110955</v>
@@ -29354,7 +29354,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
-        <v>173.4846907110955</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
         <v>137.45025063969</v>
@@ -29372,13 +29372,13 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I27" t="n">
-        <v>173.4846907110955</v>
+        <v>58.10105571457477</v>
       </c>
       <c r="J27" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>66.98372024565214</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -29387,19 +29387,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.75597606134617</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>49.53708892351364</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>55.62466529233108</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.15265312299752</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.87930649071692</v>
+        <v>62.88997426133572</v>
       </c>
       <c r="S27" t="n">
         <v>146.0937828749041</v>
@@ -29454,7 +29454,7 @@
         <v>173.4846907110955</v>
       </c>
       <c r="J28" t="n">
-        <v>173.4846907110955</v>
+        <v>42.93429506732428</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>173.4846907110955</v>
+        <v>18.5830389753076</v>
       </c>
       <c r="R28" t="n">
         <v>173.4846907110955</v>
@@ -29533,19 +29533,19 @@
         <v>173.4846907110957</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>173.4846907110957</v>
       </c>
       <c r="K29" t="n">
         <v>173.4846907110957</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>173.4846907110957</v>
       </c>
       <c r="M29" t="n">
         <v>173.4846907110957</v>
       </c>
       <c r="N29" t="n">
-        <v>130.6643001671873</v>
+        <v>173.4846907110957</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29557,7 +29557,7 @@
         <v>173.4846907110957</v>
       </c>
       <c r="R29" t="n">
-        <v>108.3702546755153</v>
+        <v>173.4846907110957</v>
       </c>
       <c r="S29" t="n">
         <v>173.4846907110957</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>173.4846907110957</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
         <v>160.0866360314548</v>
@@ -29597,19 +29597,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>173.4846907110957</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>173.4846907110957</v>
+        <v>127.1624622715678</v>
       </c>
       <c r="H30" t="n">
         <v>96.24631459259477</v>
       </c>
       <c r="I30" t="n">
-        <v>71.26452700773518</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29618,13 +29618,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>173.4846907110957</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>34.2162082766813</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>83.73309473557694</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>101.057477245434</v>
@@ -29673,10 +29673,10 @@
         <v>173.4846907110957</v>
       </c>
       <c r="D31" t="n">
-        <v>151.5411742405149</v>
+        <v>173.4846907110957</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>173.4846907110957</v>
       </c>
       <c r="F31" t="n">
         <v>173.4846907110957</v>
@@ -29688,34 +29688,34 @@
         <v>173.4846907110957</v>
       </c>
       <c r="I31" t="n">
-        <v>135.7331106864344</v>
+        <v>173.4846907110957</v>
       </c>
       <c r="J31" t="n">
         <v>173.4846907110957</v>
       </c>
       <c r="K31" t="n">
-        <v>173.4846907110957</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>173.4846907110957</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>76.24414745277529</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>67.98250497112161</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>135.9575499484264</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>173.4846907110957</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.5288848663845</v>
+        <v>22.38196767109833</v>
       </c>
       <c r="R31" t="n">
-        <v>173.4846907110957</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S31" t="n">
         <v>173.4846907110957</v>
@@ -29770,19 +29770,19 @@
         <v>173.4846907110955</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="L32" t="n">
         <v>173.4846907110955</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>117.0861634549087</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="O32" t="n">
         <v>173.4846907110955</v>
@@ -29794,7 +29794,7 @@
         <v>173.4846907110955</v>
       </c>
       <c r="R32" t="n">
-        <v>173.4846907110955</v>
+        <v>86.06184421403535</v>
       </c>
       <c r="S32" t="n">
         <v>173.4846907110955</v>
@@ -29843,16 +29843,16 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H33" t="n">
-        <v>134.2412535341103</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I33" t="n">
-        <v>71.26452700773518</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J33" t="n">
-        <v>76.719554006141</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -29861,19 +29861,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>34.2162082766813</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>49.53708892351364</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>55.62466529233108</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.15265312299752</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>173.4846907110955</v>
+        <v>101.057477245434</v>
       </c>
       <c r="S33" t="n">
         <v>146.0937828749041</v>
@@ -29910,16 +29910,16 @@
         <v>173.4846907110955</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="F34" t="n">
         <v>173.4846907110955</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9968542415478</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="H34" t="n">
         <v>173.4846907110955</v>
@@ -29928,31 +29928,31 @@
         <v>173.4846907110955</v>
       </c>
       <c r="J34" t="n">
-        <v>42.9342950673243</v>
+        <v>42.93429506732428</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>18.5830389753076</v>
+      </c>
+      <c r="R34" t="n">
         <v>173.4846907110955</v>
-      </c>
-      <c r="L34" t="n">
-        <v>173.4846907110955</v>
-      </c>
-      <c r="M34" t="n">
-        <v>114.5856148172239</v>
-      </c>
-      <c r="N34" t="n">
-        <v>173.4846907110955</v>
-      </c>
-      <c r="O34" t="n">
-        <v>173.4846907110955</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>100.5970552763871</v>
-      </c>
-      <c r="R34" t="n">
-        <v>137.5187009483811</v>
       </c>
       <c r="S34" t="n">
         <v>173.4846907110955</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="C35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="D35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="E35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="F35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="G35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="H35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="I35" t="n">
-        <v>151.0036693235603</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="K35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="L35" t="n">
-        <v>209.9493370042084</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="M35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="N35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="O35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="P35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Q35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="R35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="S35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="U35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="V35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Y35" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
     <row r="36">
@@ -30083,37 +30083,37 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I36" t="n">
-        <v>71.26452700773518</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J36" t="n">
-        <v>76.719554006141</v>
+        <v>76.71955400614097</v>
       </c>
       <c r="K36" t="n">
-        <v>66.98372024565214</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L36" t="n">
-        <v>52.05064111562927</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>44.85432453608078</v>
+        <v>44.8543245360807</v>
       </c>
       <c r="N36" t="n">
-        <v>34.2162082766813</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>49.53708892351364</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>86.85372307991304</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.15265312299752</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>101.057477245434</v>
+        <v>41.8793064907169</v>
       </c>
       <c r="S36" t="n">
-        <v>146.0937828749041</v>
+        <v>177.3228406624862</v>
       </c>
       <c r="T36" t="n">
         <v>185.6746837770579</v>
@@ -30122,10 +30122,10 @@
         <v>216.2915054838979</v>
       </c>
       <c r="V36" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W36" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>217.2033884337817</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -30165,28 +30165,28 @@
         <v>135.7331106864344</v>
       </c>
       <c r="J37" t="n">
-        <v>86.66140878686463</v>
+        <v>42.93429506732428</v>
       </c>
       <c r="K37" t="n">
-        <v>77.67194102076722</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>74.84944336390258</v>
+        <v>74.84944336390254</v>
       </c>
       <c r="M37" t="n">
-        <v>217.2033884337817</v>
+        <v>53.40536946042781</v>
       </c>
       <c r="N37" t="n">
-        <v>67.98250497112161</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>79.46394233070271</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>83.63942497583892</v>
+        <v>83.63942497583889</v>
       </c>
       <c r="Q37" t="n">
-        <v>132.2808826860444</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="R37" t="n">
         <v>137.5187009483811</v>
@@ -30195,22 +30195,22 @@
         <v>207.4999652839304</v>
       </c>
       <c r="T37" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="U37" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="V37" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W37" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X37" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
     <row r="38">
@@ -30247,7 +30247,7 @@
         <v>217.2033884337817</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="L38" t="n">
         <v>217.2033884337817</v>
@@ -30262,7 +30262,7 @@
         <v>217.2033884337817</v>
       </c>
       <c r="P38" t="n">
-        <v>143.7496178939899</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Q38" t="n">
         <v>217.2033884337817</v>
@@ -30320,34 +30320,34 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I39" t="n">
-        <v>71.26452700773518</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J39" t="n">
-        <v>76.719554006141</v>
+        <v>55.92415861815876</v>
       </c>
       <c r="K39" t="n">
-        <v>66.98372024565214</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L39" t="n">
-        <v>52.05064111562927</v>
+        <v>52.0506411156292</v>
       </c>
       <c r="M39" t="n">
-        <v>44.85432453608078</v>
+        <v>44.8543245360807</v>
       </c>
       <c r="N39" t="n">
-        <v>34.2162082766813</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>49.53708892351364</v>
+        <v>49.53708892351356</v>
       </c>
       <c r="P39" t="n">
-        <v>55.62466529233108</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>109.3817109105794</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>101.057477245434</v>
+        <v>132.2865350330159</v>
       </c>
       <c r="S39" t="n">
         <v>146.0937828749041</v>
@@ -30390,40 +30390,40 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="G40" t="n">
+        <v>166.9968542415478</v>
+      </c>
+      <c r="H40" t="n">
         <v>217.2033884337817</v>
       </c>
-      <c r="H40" t="n">
-        <v>155.7011408377324</v>
-      </c>
       <c r="I40" t="n">
-        <v>217.2033884337817</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J40" t="n">
-        <v>86.66140878686463</v>
+        <v>42.93429506732428</v>
       </c>
       <c r="K40" t="n">
-        <v>77.67194102076722</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>74.84944336390258</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>76.24414745277529</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>106.0169318322062</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>79.46394233070271</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>83.63942497583892</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.5288848663845</v>
+        <v>18.5830389753076</v>
       </c>
       <c r="R40" t="n">
         <v>137.5187009483811</v>
@@ -30478,7 +30478,7 @@
         <v>217.2033884337817</v>
       </c>
       <c r="I41" t="n">
-        <v>151.0036693235603</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="J41" t="n">
         <v>217.2033884337817</v>
@@ -30487,7 +30487,7 @@
         <v>217.2033884337817</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="M41" t="n">
         <v>217.2033884337817</v>
@@ -30505,7 +30505,7 @@
         <v>217.2033884337817</v>
       </c>
       <c r="R41" t="n">
-        <v>209.9493370042111</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="S41" t="n">
         <v>217.2033884337817</v>
@@ -30557,34 +30557,34 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I42" t="n">
-        <v>71.26452700773518</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J42" t="n">
-        <v>107.9486117937228</v>
+        <v>76.71955400614097</v>
       </c>
       <c r="K42" t="n">
-        <v>66.98372024565214</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L42" t="n">
-        <v>52.05064111562927</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>44.85432453608078</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>34.2162082766813</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>49.53708892351364</v>
+        <v>49.53708892351356</v>
       </c>
       <c r="P42" t="n">
-        <v>55.62466529233108</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.15265312299752</v>
+        <v>78.15265312299748</v>
       </c>
       <c r="R42" t="n">
-        <v>101.057477245434</v>
+        <v>106.4916873462087</v>
       </c>
       <c r="S42" t="n">
         <v>146.0937828749041</v>
@@ -30636,37 +30636,37 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I43" t="n">
-        <v>135.7331106864344</v>
+        <v>166.6588295568889</v>
       </c>
       <c r="J43" t="n">
-        <v>86.66140878686463</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="K43" t="n">
-        <v>77.67194102076722</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>217.2033884337817</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>76.24414745277529</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>67.98250497112161</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>132.6013863478838</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>83.63942497583892</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.5288848663845</v>
+        <v>18.5830389753076</v>
       </c>
       <c r="R43" t="n">
         <v>137.5187009483811</v>
       </c>
       <c r="S43" t="n">
-        <v>217.2033884337817</v>
+        <v>207.4999652839304</v>
       </c>
       <c r="T43" t="n">
         <v>217.2033884337817</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="C44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="D44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="E44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="F44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="G44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="H44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="I44" t="n">
-        <v>151.0036693235603</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="J44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="K44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="L44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="M44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="N44" t="n">
-        <v>55.67776264329409</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="O44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="P44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Q44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="R44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="S44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="U44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="V44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Y44" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
     <row r="45">
@@ -30785,7 +30785,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>164.5759178572065</v>
       </c>
       <c r="G45" t="n">
         <v>127.1624622715678</v>
@@ -30794,34 +30794,34 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I45" t="n">
-        <v>71.26452700773518</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J45" t="n">
-        <v>76.719554006141</v>
+        <v>76.71955400614097</v>
       </c>
       <c r="K45" t="n">
-        <v>66.98372024565214</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L45" t="n">
-        <v>83.27969890321123</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>44.85432453608078</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>49.53708892351364</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>55.62466529233108</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.15265312299752</v>
+        <v>78.15265312299748</v>
       </c>
       <c r="R45" t="n">
-        <v>41.87930649071692</v>
+        <v>101.057477245434</v>
       </c>
       <c r="S45" t="n">
         <v>146.0937828749041</v>
@@ -30833,10 +30833,10 @@
         <v>216.2915054838979</v>
       </c>
       <c r="V45" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W45" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>198.0996012305883</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>217.2033884337817</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30864,40 +30864,40 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>162.9716011257629</v>
       </c>
       <c r="G46" t="n">
-        <v>166.9968542415478</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="H46" t="n">
-        <v>155.7011408377324</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="I46" t="n">
-        <v>135.7331106864344</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="J46" t="n">
-        <v>42.9342950673243</v>
+        <v>42.93429506732428</v>
       </c>
       <c r="K46" t="n">
-        <v>217.2033884337817</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>74.84944336390258</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>76.24414745277529</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>67.98250497112161</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>79.46394233070271</v>
+        <v>41.94462618484383</v>
       </c>
       <c r="P46" t="n">
-        <v>83.63942497583892</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.5288848663845</v>
+        <v>18.5830389753076</v>
       </c>
       <c r="R46" t="n">
         <v>137.5187009483811</v>
@@ -30906,22 +30906,22 @@
         <v>207.4999652839304</v>
       </c>
       <c r="T46" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="U46" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="V46" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W46" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X46" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5209871598400005</v>
+        <v>0.5209871598400011</v>
       </c>
       <c r="H11" t="n">
-        <v>5.335559750711407</v>
+        <v>5.335559750711412</v>
       </c>
       <c r="I11" t="n">
-        <v>20.08535747973164</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J11" t="n">
-        <v>44.21813395747029</v>
+        <v>44.21813395747034</v>
       </c>
       <c r="K11" t="n">
-        <v>66.27152043349751</v>
+        <v>66.27152043349759</v>
       </c>
       <c r="L11" t="n">
-        <v>82.21568122645095</v>
+        <v>82.21568122645104</v>
       </c>
       <c r="M11" t="n">
-        <v>91.48078663025555</v>
+        <v>91.48078663025565</v>
       </c>
       <c r="N11" t="n">
-        <v>92.96104139815097</v>
+        <v>92.96104139815107</v>
       </c>
       <c r="O11" t="n">
-        <v>87.78047532749196</v>
+        <v>87.78047532749206</v>
       </c>
       <c r="P11" t="n">
-        <v>74.91860481894193</v>
+        <v>74.91860481894201</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.26075215717189</v>
+        <v>56.26075215717196</v>
       </c>
       <c r="R11" t="n">
-        <v>32.72645967929946</v>
+        <v>32.7264596792995</v>
       </c>
       <c r="S11" t="n">
-        <v>11.87199490485402</v>
+        <v>11.87199490485404</v>
       </c>
       <c r="T11" t="n">
-        <v>2.280621292199604</v>
+        <v>2.280621292199606</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04167897278720004</v>
+        <v>0.04167897278720008</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2787527053804307</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H12" t="n">
-        <v>2.69216428617416</v>
+        <v>2.692164286174163</v>
       </c>
       <c r="I12" t="n">
-        <v>9.59740674226483</v>
+        <v>9.597406742264839</v>
       </c>
       <c r="J12" t="n">
-        <v>26.33601766052569</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K12" t="n">
-        <v>45.01244892101455</v>
+        <v>45.0124489210146</v>
       </c>
       <c r="L12" t="n">
-        <v>60.52479245551852</v>
+        <v>60.52479245551859</v>
       </c>
       <c r="M12" t="n">
-        <v>70.62957802555911</v>
+        <v>70.6295780255592</v>
       </c>
       <c r="N12" t="n">
-        <v>72.49893279102702</v>
+        <v>72.4989327910271</v>
       </c>
       <c r="O12" t="n">
-        <v>66.32235968759747</v>
+        <v>66.32235968759754</v>
       </c>
       <c r="P12" t="n">
-        <v>53.22954073181224</v>
+        <v>53.22954073181231</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.58253832189498</v>
+        <v>35.58253832189502</v>
       </c>
       <c r="R12" t="n">
-        <v>17.30711972528675</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S12" t="n">
-        <v>5.177709242482996</v>
+        <v>5.177709242483002</v>
       </c>
       <c r="T12" t="n">
-        <v>1.123569018616736</v>
+        <v>1.123569018616737</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01833899377502834</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2336969042806889</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H13" t="n">
-        <v>2.07777793078649</v>
+        <v>2.077777930786493</v>
       </c>
       <c r="I13" t="n">
-        <v>7.02790326691381</v>
+        <v>7.027903266913818</v>
       </c>
       <c r="J13" t="n">
-        <v>16.5223711326447</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K13" t="n">
-        <v>27.15133124279276</v>
+        <v>27.15133124279279</v>
       </c>
       <c r="L13" t="n">
-        <v>34.74435611460352</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M13" t="n">
-        <v>36.63305200465381</v>
+        <v>36.63305200465384</v>
       </c>
       <c r="N13" t="n">
-        <v>35.76199990688036</v>
+        <v>35.7619999068804</v>
       </c>
       <c r="O13" t="n">
-        <v>33.03199516141957</v>
+        <v>33.0319951614196</v>
       </c>
       <c r="P13" t="n">
-        <v>28.26457831409349</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.56892895754023</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R13" t="n">
-        <v>10.50786262338443</v>
+        <v>10.50786262338444</v>
       </c>
       <c r="S13" t="n">
-        <v>4.072699686418914</v>
+        <v>4.072699686418918</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9985231364720342</v>
+        <v>0.9985231364720353</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01274710386985577</v>
+        <v>0.01274710386985579</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5209871598400005</v>
+        <v>0.5209871598400011</v>
       </c>
       <c r="H14" t="n">
-        <v>5.335559750711407</v>
+        <v>5.335559750711412</v>
       </c>
       <c r="I14" t="n">
-        <v>20.08535747973164</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J14" t="n">
-        <v>44.21813395747029</v>
+        <v>44.21813395747034</v>
       </c>
       <c r="K14" t="n">
-        <v>66.27152043349751</v>
+        <v>66.27152043349759</v>
       </c>
       <c r="L14" t="n">
-        <v>82.21568122645095</v>
+        <v>82.21568122645104</v>
       </c>
       <c r="M14" t="n">
-        <v>91.48078663025555</v>
+        <v>91.48078663025565</v>
       </c>
       <c r="N14" t="n">
-        <v>92.96104139815097</v>
+        <v>92.96104139815107</v>
       </c>
       <c r="O14" t="n">
-        <v>87.78047532749196</v>
+        <v>87.78047532749206</v>
       </c>
       <c r="P14" t="n">
-        <v>74.91860481894193</v>
+        <v>74.91860481894201</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.26075215717189</v>
+        <v>56.26075215717196</v>
       </c>
       <c r="R14" t="n">
-        <v>32.72645967929946</v>
+        <v>32.7264596792995</v>
       </c>
       <c r="S14" t="n">
-        <v>11.87199490485402</v>
+        <v>11.87199490485404</v>
       </c>
       <c r="T14" t="n">
-        <v>2.280621292199604</v>
+        <v>2.280621292199606</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04167897278720004</v>
+        <v>0.04167897278720008</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2787527053804307</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H15" t="n">
-        <v>2.69216428617416</v>
+        <v>2.692164286174163</v>
       </c>
       <c r="I15" t="n">
-        <v>9.59740674226483</v>
+        <v>9.597406742264839</v>
       </c>
       <c r="J15" t="n">
-        <v>26.33601766052569</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K15" t="n">
-        <v>45.01244892101455</v>
+        <v>45.0124489210146</v>
       </c>
       <c r="L15" t="n">
-        <v>60.52479245551852</v>
+        <v>60.52479245551859</v>
       </c>
       <c r="M15" t="n">
-        <v>70.62957802555911</v>
+        <v>70.6295780255592</v>
       </c>
       <c r="N15" t="n">
-        <v>72.49893279102702</v>
+        <v>72.4989327910271</v>
       </c>
       <c r="O15" t="n">
-        <v>66.32235968759747</v>
+        <v>66.32235968759754</v>
       </c>
       <c r="P15" t="n">
-        <v>53.22954073181224</v>
+        <v>53.22954073181231</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.58253832189498</v>
+        <v>35.58253832189502</v>
       </c>
       <c r="R15" t="n">
-        <v>17.30711972528675</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S15" t="n">
-        <v>5.177709242482996</v>
+        <v>5.177709242483002</v>
       </c>
       <c r="T15" t="n">
-        <v>1.123569018616736</v>
+        <v>1.123569018616737</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01833899377502834</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2336969042806889</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H16" t="n">
-        <v>2.07777793078649</v>
+        <v>2.077777930786493</v>
       </c>
       <c r="I16" t="n">
-        <v>7.02790326691381</v>
+        <v>7.027903266913818</v>
       </c>
       <c r="J16" t="n">
-        <v>16.5223711326447</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K16" t="n">
-        <v>27.15133124279276</v>
+        <v>27.15133124279279</v>
       </c>
       <c r="L16" t="n">
-        <v>34.74435611460352</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M16" t="n">
-        <v>36.63305200465381</v>
+        <v>36.63305200465384</v>
       </c>
       <c r="N16" t="n">
-        <v>35.76199990688036</v>
+        <v>35.7619999068804</v>
       </c>
       <c r="O16" t="n">
-        <v>33.03199516141957</v>
+        <v>33.0319951614196</v>
       </c>
       <c r="P16" t="n">
-        <v>28.26457831409349</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.56892895754023</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R16" t="n">
-        <v>10.50786262338443</v>
+        <v>10.50786262338444</v>
       </c>
       <c r="S16" t="n">
-        <v>4.072699686418914</v>
+        <v>4.072699686418918</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9985231364720342</v>
+        <v>0.9985231364720353</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01274710386985577</v>
+        <v>0.01274710386985579</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5209871598400005</v>
+        <v>0.5209871598400011</v>
       </c>
       <c r="H17" t="n">
-        <v>5.335559750711407</v>
+        <v>5.335559750711412</v>
       </c>
       <c r="I17" t="n">
-        <v>20.08535747973164</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J17" t="n">
-        <v>44.21813395747029</v>
+        <v>44.21813395747034</v>
       </c>
       <c r="K17" t="n">
-        <v>66.27152043349751</v>
+        <v>66.27152043349759</v>
       </c>
       <c r="L17" t="n">
-        <v>82.21568122645095</v>
+        <v>82.21568122645104</v>
       </c>
       <c r="M17" t="n">
-        <v>91.48078663025555</v>
+        <v>91.48078663025565</v>
       </c>
       <c r="N17" t="n">
-        <v>92.96104139815097</v>
+        <v>92.96104139815107</v>
       </c>
       <c r="O17" t="n">
-        <v>87.78047532749196</v>
+        <v>87.78047532749206</v>
       </c>
       <c r="P17" t="n">
-        <v>74.91860481894193</v>
+        <v>74.91860481894201</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.26075215717189</v>
+        <v>56.26075215717196</v>
       </c>
       <c r="R17" t="n">
-        <v>32.72645967929946</v>
+        <v>32.7264596792995</v>
       </c>
       <c r="S17" t="n">
-        <v>11.87199490485402</v>
+        <v>11.87199490485404</v>
       </c>
       <c r="T17" t="n">
-        <v>2.280621292199604</v>
+        <v>2.280621292199606</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04167897278720004</v>
+        <v>0.04167897278720008</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2787527053804307</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H18" t="n">
-        <v>2.69216428617416</v>
+        <v>2.692164286174163</v>
       </c>
       <c r="I18" t="n">
-        <v>9.59740674226483</v>
+        <v>9.597406742264839</v>
       </c>
       <c r="J18" t="n">
-        <v>26.33601766052569</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K18" t="n">
-        <v>45.01244892101455</v>
+        <v>45.0124489210146</v>
       </c>
       <c r="L18" t="n">
-        <v>60.52479245551852</v>
+        <v>60.52479245551859</v>
       </c>
       <c r="M18" t="n">
-        <v>70.62957802555911</v>
+        <v>70.6295780255592</v>
       </c>
       <c r="N18" t="n">
-        <v>72.49893279102702</v>
+        <v>72.4989327910271</v>
       </c>
       <c r="O18" t="n">
-        <v>66.32235968759747</v>
+        <v>66.32235968759754</v>
       </c>
       <c r="P18" t="n">
-        <v>53.22954073181224</v>
+        <v>53.22954073181231</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.58253832189498</v>
+        <v>35.58253832189502</v>
       </c>
       <c r="R18" t="n">
-        <v>17.30711972528675</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S18" t="n">
-        <v>5.177709242482996</v>
+        <v>5.177709242483002</v>
       </c>
       <c r="T18" t="n">
-        <v>1.123569018616736</v>
+        <v>1.123569018616737</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01833899377502834</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2336969042806889</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H19" t="n">
-        <v>2.07777793078649</v>
+        <v>2.077777930786493</v>
       </c>
       <c r="I19" t="n">
-        <v>7.02790326691381</v>
+        <v>7.027903266913818</v>
       </c>
       <c r="J19" t="n">
-        <v>16.5223711326447</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K19" t="n">
-        <v>27.15133124279276</v>
+        <v>27.15133124279279</v>
       </c>
       <c r="L19" t="n">
-        <v>34.74435611460352</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M19" t="n">
-        <v>36.63305200465381</v>
+        <v>36.63305200465384</v>
       </c>
       <c r="N19" t="n">
-        <v>35.76199990688036</v>
+        <v>35.7619999068804</v>
       </c>
       <c r="O19" t="n">
-        <v>33.03199516141957</v>
+        <v>33.0319951614196</v>
       </c>
       <c r="P19" t="n">
-        <v>28.26457831409349</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.56892895754023</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R19" t="n">
-        <v>10.50786262338443</v>
+        <v>10.50786262338444</v>
       </c>
       <c r="S19" t="n">
-        <v>4.072699686418914</v>
+        <v>4.072699686418918</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9985231364720342</v>
+        <v>0.9985231364720353</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01274710386985577</v>
+        <v>0.01274710386985579</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5209871598400005</v>
+        <v>0.5209871598400011</v>
       </c>
       <c r="H20" t="n">
-        <v>5.335559750711407</v>
+        <v>5.335559750711412</v>
       </c>
       <c r="I20" t="n">
-        <v>20.08535747973164</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J20" t="n">
-        <v>44.21813395747029</v>
+        <v>44.21813395747034</v>
       </c>
       <c r="K20" t="n">
-        <v>66.27152043349751</v>
+        <v>66.27152043349759</v>
       </c>
       <c r="L20" t="n">
-        <v>82.21568122645095</v>
+        <v>82.21568122645104</v>
       </c>
       <c r="M20" t="n">
-        <v>91.48078663025555</v>
+        <v>91.48078663025565</v>
       </c>
       <c r="N20" t="n">
-        <v>92.96104139815097</v>
+        <v>92.96104139815107</v>
       </c>
       <c r="O20" t="n">
-        <v>87.78047532749196</v>
+        <v>87.78047532749206</v>
       </c>
       <c r="P20" t="n">
-        <v>74.91860481894193</v>
+        <v>74.91860481894201</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.26075215717189</v>
+        <v>56.26075215717196</v>
       </c>
       <c r="R20" t="n">
-        <v>32.72645967929946</v>
+        <v>32.7264596792995</v>
       </c>
       <c r="S20" t="n">
-        <v>11.87199490485402</v>
+        <v>11.87199490485404</v>
       </c>
       <c r="T20" t="n">
-        <v>2.280621292199604</v>
+        <v>2.280621292199606</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04167897278720004</v>
+        <v>0.04167897278720008</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2787527053804307</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H21" t="n">
-        <v>2.69216428617416</v>
+        <v>2.692164286174163</v>
       </c>
       <c r="I21" t="n">
-        <v>9.59740674226483</v>
+        <v>9.597406742264839</v>
       </c>
       <c r="J21" t="n">
-        <v>26.33601766052569</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K21" t="n">
-        <v>45.01244892101455</v>
+        <v>45.0124489210146</v>
       </c>
       <c r="L21" t="n">
-        <v>60.52479245551852</v>
+        <v>60.52479245551859</v>
       </c>
       <c r="M21" t="n">
-        <v>70.62957802555911</v>
+        <v>70.6295780255592</v>
       </c>
       <c r="N21" t="n">
-        <v>72.49893279102702</v>
+        <v>72.4989327910271</v>
       </c>
       <c r="O21" t="n">
-        <v>66.32235968759747</v>
+        <v>66.32235968759754</v>
       </c>
       <c r="P21" t="n">
-        <v>53.22954073181224</v>
+        <v>53.22954073181231</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.58253832189498</v>
+        <v>35.58253832189502</v>
       </c>
       <c r="R21" t="n">
-        <v>17.30711972528675</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S21" t="n">
-        <v>5.177709242482996</v>
+        <v>5.177709242483002</v>
       </c>
       <c r="T21" t="n">
-        <v>1.123569018616736</v>
+        <v>1.123569018616737</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01833899377502834</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2336969042806889</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H22" t="n">
-        <v>2.07777793078649</v>
+        <v>2.077777930786493</v>
       </c>
       <c r="I22" t="n">
-        <v>7.02790326691381</v>
+        <v>7.027903266913818</v>
       </c>
       <c r="J22" t="n">
-        <v>16.5223711326447</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K22" t="n">
-        <v>27.15133124279276</v>
+        <v>27.15133124279279</v>
       </c>
       <c r="L22" t="n">
-        <v>34.74435611460352</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M22" t="n">
-        <v>36.63305200465381</v>
+        <v>36.63305200465384</v>
       </c>
       <c r="N22" t="n">
-        <v>35.76199990688036</v>
+        <v>35.7619999068804</v>
       </c>
       <c r="O22" t="n">
-        <v>33.03199516141957</v>
+        <v>33.0319951614196</v>
       </c>
       <c r="P22" t="n">
-        <v>28.26457831409349</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.56892895754023</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R22" t="n">
-        <v>10.50786262338443</v>
+        <v>10.50786262338444</v>
       </c>
       <c r="S22" t="n">
-        <v>4.072699686418914</v>
+        <v>4.072699686418918</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9985231364720342</v>
+        <v>0.9985231364720353</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01274710386985577</v>
+        <v>0.01274710386985579</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5209871598400005</v>
+        <v>0.5209871598400011</v>
       </c>
       <c r="H23" t="n">
-        <v>5.335559750711407</v>
+        <v>5.335559750711412</v>
       </c>
       <c r="I23" t="n">
-        <v>20.08535747973164</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J23" t="n">
-        <v>44.21813395747029</v>
+        <v>44.21813395747034</v>
       </c>
       <c r="K23" t="n">
-        <v>66.27152043349751</v>
+        <v>66.27152043349759</v>
       </c>
       <c r="L23" t="n">
-        <v>82.21568122645095</v>
+        <v>82.21568122645104</v>
       </c>
       <c r="M23" t="n">
-        <v>91.48078663025555</v>
+        <v>91.48078663025565</v>
       </c>
       <c r="N23" t="n">
-        <v>92.96104139815097</v>
+        <v>92.96104139815107</v>
       </c>
       <c r="O23" t="n">
-        <v>87.78047532749196</v>
+        <v>87.78047532749206</v>
       </c>
       <c r="P23" t="n">
-        <v>74.91860481894193</v>
+        <v>74.91860481894201</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.26075215717189</v>
+        <v>56.26075215717196</v>
       </c>
       <c r="R23" t="n">
-        <v>32.72645967929946</v>
+        <v>32.7264596792995</v>
       </c>
       <c r="S23" t="n">
-        <v>11.87199490485402</v>
+        <v>11.87199490485404</v>
       </c>
       <c r="T23" t="n">
-        <v>2.280621292199604</v>
+        <v>2.280621292199606</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04167897278720004</v>
+        <v>0.04167897278720008</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2787527053804307</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H24" t="n">
-        <v>2.69216428617416</v>
+        <v>2.692164286174163</v>
       </c>
       <c r="I24" t="n">
-        <v>9.59740674226483</v>
+        <v>9.597406742264839</v>
       </c>
       <c r="J24" t="n">
-        <v>26.33601766052569</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K24" t="n">
-        <v>45.01244892101455</v>
+        <v>45.0124489210146</v>
       </c>
       <c r="L24" t="n">
-        <v>60.52479245551852</v>
+        <v>60.52479245551859</v>
       </c>
       <c r="M24" t="n">
-        <v>70.62957802555911</v>
+        <v>70.6295780255592</v>
       </c>
       <c r="N24" t="n">
-        <v>72.49893279102702</v>
+        <v>72.4989327910271</v>
       </c>
       <c r="O24" t="n">
-        <v>66.32235968759747</v>
+        <v>66.32235968759754</v>
       </c>
       <c r="P24" t="n">
-        <v>53.22954073181224</v>
+        <v>53.22954073181231</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.58253832189498</v>
+        <v>35.58253832189502</v>
       </c>
       <c r="R24" t="n">
-        <v>17.30711972528675</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S24" t="n">
-        <v>5.177709242482996</v>
+        <v>5.177709242483002</v>
       </c>
       <c r="T24" t="n">
-        <v>1.123569018616736</v>
+        <v>1.123569018616737</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01833899377502834</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2336969042806889</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H25" t="n">
-        <v>2.07777793078649</v>
+        <v>2.077777930786493</v>
       </c>
       <c r="I25" t="n">
-        <v>7.02790326691381</v>
+        <v>7.027903266913818</v>
       </c>
       <c r="J25" t="n">
-        <v>16.5223711326447</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K25" t="n">
-        <v>27.15133124279276</v>
+        <v>27.15133124279279</v>
       </c>
       <c r="L25" t="n">
-        <v>34.74435611460352</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M25" t="n">
-        <v>36.63305200465381</v>
+        <v>36.63305200465384</v>
       </c>
       <c r="N25" t="n">
-        <v>35.76199990688036</v>
+        <v>35.7619999068804</v>
       </c>
       <c r="O25" t="n">
-        <v>33.03199516141957</v>
+        <v>33.0319951614196</v>
       </c>
       <c r="P25" t="n">
-        <v>28.26457831409349</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.56892895754023</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R25" t="n">
-        <v>10.50786262338443</v>
+        <v>10.50786262338444</v>
       </c>
       <c r="S25" t="n">
-        <v>4.072699686418914</v>
+        <v>4.072699686418918</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9985231364720342</v>
+        <v>0.9985231364720353</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01274710386985577</v>
+        <v>0.01274710386985579</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5209871598400005</v>
+        <v>0.5209871598400011</v>
       </c>
       <c r="H26" t="n">
-        <v>5.335559750711407</v>
+        <v>5.335559750711412</v>
       </c>
       <c r="I26" t="n">
-        <v>20.08535747973164</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J26" t="n">
-        <v>44.21813395747029</v>
+        <v>44.21813395747034</v>
       </c>
       <c r="K26" t="n">
-        <v>66.27152043349751</v>
+        <v>66.27152043349759</v>
       </c>
       <c r="L26" t="n">
-        <v>82.21568122645095</v>
+        <v>82.21568122645104</v>
       </c>
       <c r="M26" t="n">
-        <v>91.48078663025555</v>
+        <v>91.48078663025565</v>
       </c>
       <c r="N26" t="n">
-        <v>92.96104139815097</v>
+        <v>92.96104139815107</v>
       </c>
       <c r="O26" t="n">
-        <v>87.78047532749196</v>
+        <v>87.78047532749206</v>
       </c>
       <c r="P26" t="n">
-        <v>74.91860481894193</v>
+        <v>74.91860481894201</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.26075215717189</v>
+        <v>56.26075215717196</v>
       </c>
       <c r="R26" t="n">
-        <v>32.72645967929946</v>
+        <v>32.7264596792995</v>
       </c>
       <c r="S26" t="n">
-        <v>11.87199490485402</v>
+        <v>11.87199490485404</v>
       </c>
       <c r="T26" t="n">
-        <v>2.280621292199604</v>
+        <v>2.280621292199606</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04167897278720004</v>
+        <v>0.04167897278720008</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2787527053804307</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H27" t="n">
-        <v>2.69216428617416</v>
+        <v>2.692164286174163</v>
       </c>
       <c r="I27" t="n">
-        <v>9.59740674226483</v>
+        <v>9.597406742264839</v>
       </c>
       <c r="J27" t="n">
-        <v>26.33601766052569</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K27" t="n">
-        <v>45.01244892101455</v>
+        <v>45.0124489210146</v>
       </c>
       <c r="L27" t="n">
-        <v>60.52479245551852</v>
+        <v>60.52479245551859</v>
       </c>
       <c r="M27" t="n">
-        <v>70.62957802555911</v>
+        <v>70.6295780255592</v>
       </c>
       <c r="N27" t="n">
-        <v>72.49893279102702</v>
+        <v>72.4989327910271</v>
       </c>
       <c r="O27" t="n">
-        <v>66.32235968759747</v>
+        <v>66.32235968759754</v>
       </c>
       <c r="P27" t="n">
-        <v>53.22954073181224</v>
+        <v>53.22954073181231</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.58253832189498</v>
+        <v>35.58253832189502</v>
       </c>
       <c r="R27" t="n">
-        <v>17.30711972528675</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S27" t="n">
-        <v>5.177709242482996</v>
+        <v>5.177709242483002</v>
       </c>
       <c r="T27" t="n">
-        <v>1.123569018616736</v>
+        <v>1.123569018616737</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01833899377502834</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2336969042806889</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H28" t="n">
-        <v>2.07777793078649</v>
+        <v>2.077777930786493</v>
       </c>
       <c r="I28" t="n">
-        <v>7.02790326691381</v>
+        <v>7.027903266913818</v>
       </c>
       <c r="J28" t="n">
-        <v>16.5223711326447</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K28" t="n">
-        <v>27.15133124279276</v>
+        <v>27.15133124279279</v>
       </c>
       <c r="L28" t="n">
-        <v>34.74435611460352</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M28" t="n">
-        <v>36.63305200465381</v>
+        <v>36.63305200465384</v>
       </c>
       <c r="N28" t="n">
-        <v>35.76199990688036</v>
+        <v>35.7619999068804</v>
       </c>
       <c r="O28" t="n">
-        <v>33.03199516141957</v>
+        <v>33.0319951614196</v>
       </c>
       <c r="P28" t="n">
-        <v>28.26457831409349</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.56892895754023</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R28" t="n">
-        <v>10.50786262338443</v>
+        <v>10.50786262338444</v>
       </c>
       <c r="S28" t="n">
-        <v>4.072699686418914</v>
+        <v>4.072699686418918</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9985231364720342</v>
+        <v>0.9985231364720353</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01274710386985577</v>
+        <v>0.01274710386985579</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5209871598400005</v>
+        <v>0.5209871598400011</v>
       </c>
       <c r="H29" t="n">
-        <v>5.335559750711407</v>
+        <v>5.335559750711412</v>
       </c>
       <c r="I29" t="n">
-        <v>20.08535747973164</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J29" t="n">
-        <v>44.21813395747029</v>
+        <v>44.21813395747034</v>
       </c>
       <c r="K29" t="n">
-        <v>66.27152043349751</v>
+        <v>66.27152043349759</v>
       </c>
       <c r="L29" t="n">
-        <v>82.21568122645095</v>
+        <v>82.21568122645104</v>
       </c>
       <c r="M29" t="n">
-        <v>91.48078663025555</v>
+        <v>91.48078663025565</v>
       </c>
       <c r="N29" t="n">
-        <v>92.96104139815097</v>
+        <v>92.96104139815107</v>
       </c>
       <c r="O29" t="n">
-        <v>87.78047532749196</v>
+        <v>87.78047532749206</v>
       </c>
       <c r="P29" t="n">
-        <v>74.91860481894193</v>
+        <v>74.91860481894201</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.26075215717189</v>
+        <v>56.26075215717196</v>
       </c>
       <c r="R29" t="n">
-        <v>32.72645967929946</v>
+        <v>32.7264596792995</v>
       </c>
       <c r="S29" t="n">
-        <v>11.87199490485402</v>
+        <v>11.87199490485404</v>
       </c>
       <c r="T29" t="n">
-        <v>2.280621292199604</v>
+        <v>2.280621292199606</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04167897278720004</v>
+        <v>0.04167897278720008</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2787527053804307</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H30" t="n">
-        <v>2.69216428617416</v>
+        <v>2.692164286174163</v>
       </c>
       <c r="I30" t="n">
-        <v>9.59740674226483</v>
+        <v>9.597406742264839</v>
       </c>
       <c r="J30" t="n">
-        <v>26.33601766052569</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K30" t="n">
-        <v>45.01244892101455</v>
+        <v>45.0124489210146</v>
       </c>
       <c r="L30" t="n">
-        <v>60.52479245551852</v>
+        <v>60.52479245551859</v>
       </c>
       <c r="M30" t="n">
-        <v>70.62957802555911</v>
+        <v>70.6295780255592</v>
       </c>
       <c r="N30" t="n">
-        <v>72.49893279102702</v>
+        <v>72.4989327910271</v>
       </c>
       <c r="O30" t="n">
-        <v>66.32235968759747</v>
+        <v>66.32235968759754</v>
       </c>
       <c r="P30" t="n">
-        <v>53.22954073181224</v>
+        <v>53.22954073181231</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.58253832189498</v>
+        <v>35.58253832189502</v>
       </c>
       <c r="R30" t="n">
-        <v>17.30711972528675</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S30" t="n">
-        <v>5.177709242482996</v>
+        <v>5.177709242483002</v>
       </c>
       <c r="T30" t="n">
-        <v>1.123569018616736</v>
+        <v>1.123569018616737</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01833899377502834</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2336969042806889</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H31" t="n">
-        <v>2.07777793078649</v>
+        <v>2.077777930786493</v>
       </c>
       <c r="I31" t="n">
-        <v>7.02790326691381</v>
+        <v>7.027903266913818</v>
       </c>
       <c r="J31" t="n">
-        <v>16.5223711326447</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K31" t="n">
-        <v>27.15133124279276</v>
+        <v>27.15133124279279</v>
       </c>
       <c r="L31" t="n">
-        <v>34.74435611460352</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M31" t="n">
-        <v>36.63305200465381</v>
+        <v>36.63305200465384</v>
       </c>
       <c r="N31" t="n">
-        <v>35.76199990688036</v>
+        <v>35.7619999068804</v>
       </c>
       <c r="O31" t="n">
-        <v>33.03199516141957</v>
+        <v>33.0319951614196</v>
       </c>
       <c r="P31" t="n">
-        <v>28.26457831409349</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.56892895754023</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R31" t="n">
-        <v>10.50786262338443</v>
+        <v>10.50786262338444</v>
       </c>
       <c r="S31" t="n">
-        <v>4.072699686418914</v>
+        <v>4.072699686418918</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9985231364720342</v>
+        <v>0.9985231364720353</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01274710386985577</v>
+        <v>0.01274710386985579</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5209871598400005</v>
+        <v>0.5209871598400011</v>
       </c>
       <c r="H32" t="n">
-        <v>5.335559750711407</v>
+        <v>5.335559750711412</v>
       </c>
       <c r="I32" t="n">
-        <v>20.08535747973164</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J32" t="n">
-        <v>44.21813395747029</v>
+        <v>44.21813395747034</v>
       </c>
       <c r="K32" t="n">
-        <v>66.27152043349751</v>
+        <v>66.27152043349759</v>
       </c>
       <c r="L32" t="n">
-        <v>82.21568122645095</v>
+        <v>82.21568122645104</v>
       </c>
       <c r="M32" t="n">
-        <v>91.48078663025555</v>
+        <v>91.48078663025565</v>
       </c>
       <c r="N32" t="n">
-        <v>92.96104139815097</v>
+        <v>92.96104139815107</v>
       </c>
       <c r="O32" t="n">
-        <v>87.78047532749196</v>
+        <v>87.78047532749206</v>
       </c>
       <c r="P32" t="n">
-        <v>74.91860481894193</v>
+        <v>74.91860481894201</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.26075215717189</v>
+        <v>56.26075215717196</v>
       </c>
       <c r="R32" t="n">
-        <v>32.72645967929946</v>
+        <v>32.7264596792995</v>
       </c>
       <c r="S32" t="n">
-        <v>11.87199490485402</v>
+        <v>11.87199490485404</v>
       </c>
       <c r="T32" t="n">
-        <v>2.280621292199604</v>
+        <v>2.280621292199606</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04167897278720004</v>
+        <v>0.04167897278720008</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2787527053804307</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H33" t="n">
-        <v>2.69216428617416</v>
+        <v>2.692164286174163</v>
       </c>
       <c r="I33" t="n">
-        <v>9.59740674226483</v>
+        <v>9.597406742264839</v>
       </c>
       <c r="J33" t="n">
-        <v>26.33601766052569</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K33" t="n">
-        <v>45.01244892101455</v>
+        <v>45.0124489210146</v>
       </c>
       <c r="L33" t="n">
-        <v>60.52479245551852</v>
+        <v>60.52479245551859</v>
       </c>
       <c r="M33" t="n">
-        <v>70.62957802555911</v>
+        <v>70.6295780255592</v>
       </c>
       <c r="N33" t="n">
-        <v>72.49893279102702</v>
+        <v>72.4989327910271</v>
       </c>
       <c r="O33" t="n">
-        <v>66.32235968759747</v>
+        <v>66.32235968759754</v>
       </c>
       <c r="P33" t="n">
-        <v>53.22954073181224</v>
+        <v>53.22954073181231</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.58253832189498</v>
+        <v>35.58253832189502</v>
       </c>
       <c r="R33" t="n">
-        <v>17.30711972528675</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S33" t="n">
-        <v>5.177709242482996</v>
+        <v>5.177709242483002</v>
       </c>
       <c r="T33" t="n">
-        <v>1.123569018616736</v>
+        <v>1.123569018616737</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01833899377502834</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2336969042806889</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H34" t="n">
-        <v>2.07777793078649</v>
+        <v>2.077777930786493</v>
       </c>
       <c r="I34" t="n">
-        <v>7.02790326691381</v>
+        <v>7.027903266913818</v>
       </c>
       <c r="J34" t="n">
-        <v>16.5223711326447</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K34" t="n">
-        <v>27.15133124279276</v>
+        <v>27.15133124279279</v>
       </c>
       <c r="L34" t="n">
-        <v>34.74435611460352</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M34" t="n">
-        <v>36.63305200465381</v>
+        <v>36.63305200465384</v>
       </c>
       <c r="N34" t="n">
-        <v>35.76199990688036</v>
+        <v>35.7619999068804</v>
       </c>
       <c r="O34" t="n">
-        <v>33.03199516141957</v>
+        <v>33.0319951614196</v>
       </c>
       <c r="P34" t="n">
-        <v>28.26457831409349</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.56892895754023</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R34" t="n">
-        <v>10.50786262338443</v>
+        <v>10.50786262338444</v>
       </c>
       <c r="S34" t="n">
-        <v>4.072699686418914</v>
+        <v>4.072699686418918</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9985231364720342</v>
+        <v>0.9985231364720353</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01274710386985577</v>
+        <v>0.01274710386985579</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5209871598400005</v>
+        <v>0.5209871598400011</v>
       </c>
       <c r="H35" t="n">
-        <v>5.335559750711407</v>
+        <v>5.335559750711412</v>
       </c>
       <c r="I35" t="n">
-        <v>20.08535747973164</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J35" t="n">
-        <v>44.21813395747029</v>
+        <v>44.21813395747034</v>
       </c>
       <c r="K35" t="n">
-        <v>66.27152043349751</v>
+        <v>66.27152043349759</v>
       </c>
       <c r="L35" t="n">
-        <v>82.21568122645095</v>
+        <v>82.21568122645104</v>
       </c>
       <c r="M35" t="n">
-        <v>91.48078663025555</v>
+        <v>91.48078663025565</v>
       </c>
       <c r="N35" t="n">
-        <v>92.96104139815097</v>
+        <v>92.96104139815107</v>
       </c>
       <c r="O35" t="n">
-        <v>87.78047532749196</v>
+        <v>87.78047532749206</v>
       </c>
       <c r="P35" t="n">
-        <v>74.91860481894193</v>
+        <v>74.91860481894201</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.26075215717189</v>
+        <v>56.26075215717196</v>
       </c>
       <c r="R35" t="n">
-        <v>32.72645967929946</v>
+        <v>32.7264596792995</v>
       </c>
       <c r="S35" t="n">
-        <v>11.87199490485402</v>
+        <v>11.87199490485404</v>
       </c>
       <c r="T35" t="n">
-        <v>2.280621292199604</v>
+        <v>2.280621292199606</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04167897278720004</v>
+        <v>0.04167897278720008</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2787527053804307</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H36" t="n">
-        <v>2.69216428617416</v>
+        <v>2.692164286174163</v>
       </c>
       <c r="I36" t="n">
-        <v>9.59740674226483</v>
+        <v>9.597406742264839</v>
       </c>
       <c r="J36" t="n">
-        <v>26.33601766052569</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K36" t="n">
-        <v>45.01244892101455</v>
+        <v>45.0124489210146</v>
       </c>
       <c r="L36" t="n">
-        <v>60.52479245551852</v>
+        <v>60.52479245551859</v>
       </c>
       <c r="M36" t="n">
-        <v>70.62957802555911</v>
+        <v>70.6295780255592</v>
       </c>
       <c r="N36" t="n">
-        <v>72.49893279102702</v>
+        <v>72.4989327910271</v>
       </c>
       <c r="O36" t="n">
-        <v>66.32235968759747</v>
+        <v>66.32235968759754</v>
       </c>
       <c r="P36" t="n">
-        <v>53.22954073181224</v>
+        <v>53.22954073181231</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.58253832189498</v>
+        <v>35.58253832189502</v>
       </c>
       <c r="R36" t="n">
-        <v>17.30711972528675</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S36" t="n">
-        <v>5.177709242482996</v>
+        <v>5.177709242483002</v>
       </c>
       <c r="T36" t="n">
-        <v>1.123569018616736</v>
+        <v>1.123569018616737</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01833899377502834</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2336969042806889</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H37" t="n">
-        <v>2.07777793078649</v>
+        <v>2.077777930786493</v>
       </c>
       <c r="I37" t="n">
-        <v>7.02790326691381</v>
+        <v>7.027903266913818</v>
       </c>
       <c r="J37" t="n">
-        <v>16.5223711326447</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K37" t="n">
-        <v>27.15133124279276</v>
+        <v>27.15133124279279</v>
       </c>
       <c r="L37" t="n">
-        <v>34.74435611460352</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M37" t="n">
-        <v>36.63305200465381</v>
+        <v>36.63305200465384</v>
       </c>
       <c r="N37" t="n">
-        <v>35.76199990688036</v>
+        <v>35.7619999068804</v>
       </c>
       <c r="O37" t="n">
-        <v>33.03199516141957</v>
+        <v>33.0319951614196</v>
       </c>
       <c r="P37" t="n">
-        <v>28.26457831409349</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.56892895754023</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R37" t="n">
-        <v>10.50786262338443</v>
+        <v>10.50786262338444</v>
       </c>
       <c r="S37" t="n">
-        <v>4.072699686418914</v>
+        <v>4.072699686418918</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9985231364720342</v>
+        <v>0.9985231364720353</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01274710386985577</v>
+        <v>0.01274710386985579</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5209871598400005</v>
+        <v>0.5209871598400011</v>
       </c>
       <c r="H38" t="n">
-        <v>5.335559750711407</v>
+        <v>5.335559750711412</v>
       </c>
       <c r="I38" t="n">
-        <v>20.08535747973164</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J38" t="n">
-        <v>44.21813395747029</v>
+        <v>44.21813395747034</v>
       </c>
       <c r="K38" t="n">
-        <v>66.27152043349751</v>
+        <v>66.27152043349759</v>
       </c>
       <c r="L38" t="n">
-        <v>82.21568122645095</v>
+        <v>82.21568122645104</v>
       </c>
       <c r="M38" t="n">
-        <v>91.48078663025555</v>
+        <v>91.48078663025565</v>
       </c>
       <c r="N38" t="n">
-        <v>92.96104139815097</v>
+        <v>92.96104139815107</v>
       </c>
       <c r="O38" t="n">
-        <v>87.78047532749196</v>
+        <v>87.78047532749206</v>
       </c>
       <c r="P38" t="n">
-        <v>74.91860481894193</v>
+        <v>74.91860481894201</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.26075215717189</v>
+        <v>56.26075215717196</v>
       </c>
       <c r="R38" t="n">
-        <v>32.72645967929946</v>
+        <v>32.7264596792995</v>
       </c>
       <c r="S38" t="n">
-        <v>11.87199490485402</v>
+        <v>11.87199490485404</v>
       </c>
       <c r="T38" t="n">
-        <v>2.280621292199604</v>
+        <v>2.280621292199606</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04167897278720004</v>
+        <v>0.04167897278720008</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2787527053804307</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H39" t="n">
-        <v>2.69216428617416</v>
+        <v>2.692164286174163</v>
       </c>
       <c r="I39" t="n">
-        <v>9.59740674226483</v>
+        <v>9.597406742264839</v>
       </c>
       <c r="J39" t="n">
-        <v>26.33601766052569</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K39" t="n">
-        <v>45.01244892101455</v>
+        <v>45.0124489210146</v>
       </c>
       <c r="L39" t="n">
-        <v>60.52479245551852</v>
+        <v>60.52479245551859</v>
       </c>
       <c r="M39" t="n">
-        <v>70.62957802555911</v>
+        <v>70.6295780255592</v>
       </c>
       <c r="N39" t="n">
-        <v>72.49893279102702</v>
+        <v>72.4989327910271</v>
       </c>
       <c r="O39" t="n">
-        <v>66.32235968759747</v>
+        <v>66.32235968759754</v>
       </c>
       <c r="P39" t="n">
-        <v>53.22954073181224</v>
+        <v>53.22954073181231</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.58253832189498</v>
+        <v>35.58253832189502</v>
       </c>
       <c r="R39" t="n">
-        <v>17.30711972528675</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S39" t="n">
-        <v>5.177709242482996</v>
+        <v>5.177709242483002</v>
       </c>
       <c r="T39" t="n">
-        <v>1.123569018616736</v>
+        <v>1.123569018616737</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01833899377502834</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2336969042806889</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H40" t="n">
-        <v>2.07777793078649</v>
+        <v>2.077777930786493</v>
       </c>
       <c r="I40" t="n">
-        <v>7.02790326691381</v>
+        <v>7.027903266913818</v>
       </c>
       <c r="J40" t="n">
-        <v>16.5223711326447</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K40" t="n">
-        <v>27.15133124279276</v>
+        <v>27.15133124279279</v>
       </c>
       <c r="L40" t="n">
-        <v>34.74435611460352</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M40" t="n">
-        <v>36.63305200465381</v>
+        <v>36.63305200465384</v>
       </c>
       <c r="N40" t="n">
-        <v>35.76199990688036</v>
+        <v>35.7619999068804</v>
       </c>
       <c r="O40" t="n">
-        <v>33.03199516141957</v>
+        <v>33.0319951614196</v>
       </c>
       <c r="P40" t="n">
-        <v>28.26457831409349</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.56892895754023</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R40" t="n">
-        <v>10.50786262338443</v>
+        <v>10.50786262338444</v>
       </c>
       <c r="S40" t="n">
-        <v>4.072699686418914</v>
+        <v>4.072699686418918</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9985231364720342</v>
+        <v>0.9985231364720353</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01274710386985577</v>
+        <v>0.01274710386985579</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5209871598400005</v>
+        <v>0.5209871598400011</v>
       </c>
       <c r="H41" t="n">
-        <v>5.335559750711407</v>
+        <v>5.335559750711412</v>
       </c>
       <c r="I41" t="n">
-        <v>20.08535747973164</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J41" t="n">
-        <v>44.21813395747029</v>
+        <v>44.21813395747034</v>
       </c>
       <c r="K41" t="n">
-        <v>66.27152043349751</v>
+        <v>66.27152043349759</v>
       </c>
       <c r="L41" t="n">
-        <v>82.21568122645095</v>
+        <v>82.21568122645104</v>
       </c>
       <c r="M41" t="n">
-        <v>91.48078663025555</v>
+        <v>91.48078663025565</v>
       </c>
       <c r="N41" t="n">
-        <v>92.96104139815097</v>
+        <v>92.96104139815107</v>
       </c>
       <c r="O41" t="n">
-        <v>87.78047532749196</v>
+        <v>87.78047532749206</v>
       </c>
       <c r="P41" t="n">
-        <v>74.91860481894193</v>
+        <v>74.91860481894201</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.26075215717189</v>
+        <v>56.26075215717196</v>
       </c>
       <c r="R41" t="n">
-        <v>32.72645967929946</v>
+        <v>32.7264596792995</v>
       </c>
       <c r="S41" t="n">
-        <v>11.87199490485402</v>
+        <v>11.87199490485404</v>
       </c>
       <c r="T41" t="n">
-        <v>2.280621292199604</v>
+        <v>2.280621292199606</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04167897278720004</v>
+        <v>0.04167897278720008</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2787527053804307</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H42" t="n">
-        <v>2.69216428617416</v>
+        <v>2.692164286174163</v>
       </c>
       <c r="I42" t="n">
-        <v>9.59740674226483</v>
+        <v>9.597406742264839</v>
       </c>
       <c r="J42" t="n">
-        <v>26.33601766052569</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K42" t="n">
-        <v>45.01244892101455</v>
+        <v>45.0124489210146</v>
       </c>
       <c r="L42" t="n">
-        <v>60.52479245551852</v>
+        <v>60.52479245551859</v>
       </c>
       <c r="M42" t="n">
-        <v>70.62957802555911</v>
+        <v>70.6295780255592</v>
       </c>
       <c r="N42" t="n">
-        <v>72.49893279102702</v>
+        <v>72.4989327910271</v>
       </c>
       <c r="O42" t="n">
-        <v>66.32235968759747</v>
+        <v>66.32235968759754</v>
       </c>
       <c r="P42" t="n">
-        <v>53.22954073181224</v>
+        <v>53.22954073181231</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.58253832189498</v>
+        <v>35.58253832189502</v>
       </c>
       <c r="R42" t="n">
-        <v>17.30711972528675</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S42" t="n">
-        <v>5.177709242482996</v>
+        <v>5.177709242483002</v>
       </c>
       <c r="T42" t="n">
-        <v>1.123569018616736</v>
+        <v>1.123569018616737</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01833899377502834</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2336969042806889</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H43" t="n">
-        <v>2.07777793078649</v>
+        <v>2.077777930786493</v>
       </c>
       <c r="I43" t="n">
-        <v>7.02790326691381</v>
+        <v>7.027903266913818</v>
       </c>
       <c r="J43" t="n">
-        <v>16.5223711326447</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K43" t="n">
-        <v>27.15133124279276</v>
+        <v>27.15133124279279</v>
       </c>
       <c r="L43" t="n">
-        <v>34.74435611460352</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M43" t="n">
-        <v>36.63305200465381</v>
+        <v>36.63305200465384</v>
       </c>
       <c r="N43" t="n">
-        <v>35.76199990688036</v>
+        <v>35.7619999068804</v>
       </c>
       <c r="O43" t="n">
-        <v>33.03199516141957</v>
+        <v>33.0319951614196</v>
       </c>
       <c r="P43" t="n">
-        <v>28.26457831409349</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.56892895754023</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R43" t="n">
-        <v>10.50786262338443</v>
+        <v>10.50786262338444</v>
       </c>
       <c r="S43" t="n">
-        <v>4.072699686418914</v>
+        <v>4.072699686418918</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9985231364720342</v>
+        <v>0.9985231364720353</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01274710386985577</v>
+        <v>0.01274710386985579</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5209871598400005</v>
+        <v>0.5209871598400011</v>
       </c>
       <c r="H44" t="n">
-        <v>5.335559750711407</v>
+        <v>5.335559750711412</v>
       </c>
       <c r="I44" t="n">
-        <v>20.08535747973164</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J44" t="n">
-        <v>44.21813395747029</v>
+        <v>44.21813395747034</v>
       </c>
       <c r="K44" t="n">
-        <v>66.27152043349751</v>
+        <v>66.27152043349759</v>
       </c>
       <c r="L44" t="n">
-        <v>82.21568122645095</v>
+        <v>82.21568122645104</v>
       </c>
       <c r="M44" t="n">
-        <v>91.48078663025555</v>
+        <v>91.48078663025565</v>
       </c>
       <c r="N44" t="n">
-        <v>92.96104139815097</v>
+        <v>92.96104139815107</v>
       </c>
       <c r="O44" t="n">
-        <v>87.78047532749196</v>
+        <v>87.78047532749206</v>
       </c>
       <c r="P44" t="n">
-        <v>74.91860481894193</v>
+        <v>74.91860481894201</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.26075215717189</v>
+        <v>56.26075215717196</v>
       </c>
       <c r="R44" t="n">
-        <v>32.72645967929946</v>
+        <v>32.7264596792995</v>
       </c>
       <c r="S44" t="n">
-        <v>11.87199490485402</v>
+        <v>11.87199490485404</v>
       </c>
       <c r="T44" t="n">
-        <v>2.280621292199604</v>
+        <v>2.280621292199606</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04167897278720004</v>
+        <v>0.04167897278720008</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2787527053804307</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H45" t="n">
-        <v>2.69216428617416</v>
+        <v>2.692164286174163</v>
       </c>
       <c r="I45" t="n">
-        <v>9.59740674226483</v>
+        <v>9.597406742264839</v>
       </c>
       <c r="J45" t="n">
-        <v>26.33601766052569</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K45" t="n">
-        <v>45.01244892101455</v>
+        <v>45.0124489210146</v>
       </c>
       <c r="L45" t="n">
-        <v>60.52479245551852</v>
+        <v>60.52479245551859</v>
       </c>
       <c r="M45" t="n">
-        <v>70.62957802555911</v>
+        <v>70.6295780255592</v>
       </c>
       <c r="N45" t="n">
-        <v>72.49893279102702</v>
+        <v>72.4989327910271</v>
       </c>
       <c r="O45" t="n">
-        <v>66.32235968759747</v>
+        <v>66.32235968759754</v>
       </c>
       <c r="P45" t="n">
-        <v>53.22954073181224</v>
+        <v>53.22954073181231</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.58253832189498</v>
+        <v>35.58253832189502</v>
       </c>
       <c r="R45" t="n">
-        <v>17.30711972528675</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S45" t="n">
-        <v>5.177709242482996</v>
+        <v>5.177709242483002</v>
       </c>
       <c r="T45" t="n">
-        <v>1.123569018616736</v>
+        <v>1.123569018616737</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01833899377502834</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2336969042806889</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H46" t="n">
-        <v>2.07777793078649</v>
+        <v>2.077777930786493</v>
       </c>
       <c r="I46" t="n">
-        <v>7.02790326691381</v>
+        <v>7.027903266913818</v>
       </c>
       <c r="J46" t="n">
-        <v>16.5223711326447</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K46" t="n">
-        <v>27.15133124279276</v>
+        <v>27.15133124279279</v>
       </c>
       <c r="L46" t="n">
-        <v>34.74435611460352</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M46" t="n">
-        <v>36.63305200465381</v>
+        <v>36.63305200465384</v>
       </c>
       <c r="N46" t="n">
-        <v>35.76199990688036</v>
+        <v>35.7619999068804</v>
       </c>
       <c r="O46" t="n">
-        <v>33.03199516141957</v>
+        <v>33.0319951614196</v>
       </c>
       <c r="P46" t="n">
-        <v>28.26457831409349</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.56892895754023</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R46" t="n">
-        <v>10.50786262338443</v>
+        <v>10.50786262338444</v>
       </c>
       <c r="S46" t="n">
-        <v>4.072699686418914</v>
+        <v>4.072699686418918</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9985231364720342</v>
+        <v>0.9985231364720353</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01274710386985577</v>
+        <v>0.01274710386985579</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,34 +35407,34 @@
         <v>64.57089352680615</v>
       </c>
       <c r="J11" t="n">
-        <v>36.95042483820878</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>103.0230793098172</v>
+        <v>71.33877262132307</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>106.2300319137028</v>
       </c>
       <c r="M11" t="n">
-        <v>119.8990349834629</v>
+        <v>119.899034983463</v>
       </c>
       <c r="N11" t="n">
-        <v>122.1374900762873</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>102.6163586181519</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.21194198454812</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.13777305568357</v>
       </c>
       <c r="S11" t="n">
-        <v>42.08987213927089</v>
+        <v>42.08987213927088</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>35.28435194160899</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>35.28435194160908</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,25 +35541,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>33.8547478528304</v>
       </c>
       <c r="C13" t="n">
-        <v>14.5676547807599</v>
+        <v>47.65475300742992</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.08563875407208</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>64.61871442588577</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.952342239639789</v>
       </c>
       <c r="H13" t="n">
-        <v>59.87342201263403</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>140.7251194864639</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>64.57089352680603</v>
+        <v>64.570893526806</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>112.692899379904</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>79.77911537445139</v>
       </c>
       <c r="L14" t="n">
-        <v>86.3568625504786</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>119.8990349834628</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>116.4002413977379</v>
       </c>
       <c r="P14" t="n">
-        <v>102.6163586181518</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.21194198454801</v>
+        <v>91.21194198454802</v>
       </c>
       <c r="R14" t="n">
-        <v>73.13777305568345</v>
+        <v>73.13777305568343</v>
       </c>
       <c r="S14" t="n">
-        <v>42.08987213927078</v>
+        <v>42.08987213927074</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35744,10 +35744,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>35.28435194160951</v>
       </c>
       <c r="R15" t="n">
-        <v>35.28435194160934</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35784,10 +35784,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>64.03338860985139</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.08563875407194</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>86.04716891593553</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>140.7251194864638</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>74.44107679339473</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35878,11 +35878,11 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>146.4499769106677</v>
+      </c>
+      <c r="J17" t="n">
         <v>110.7973186856194</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -35905,7 +35905,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>146.4499769106677</v>
@@ -36115,16 +36115,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="K20" t="n">
-        <v>110.7973186856194</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>140.5328061263983</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36139,19 +36139,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>104.322766393853</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>71.86269795759364</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>146.4499769106677</v>
       </c>
       <c r="K23" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.7973186856194</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36385,7 +36385,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>68.67010816880467</v>
+        <v>104.322766393853</v>
       </c>
       <c r="U23" t="n">
         <v>71.86269795759364</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>22.48102138753523</v>
+        <v>22.48102138753526</v>
       </c>
       <c r="J26" t="n">
-        <v>70.6030272406332</v>
+        <v>290.4286269643292</v>
       </c>
       <c r="K26" t="n">
-        <v>444.1410648284131</v>
+        <v>60.93320717054641</v>
       </c>
       <c r="L26" t="n">
-        <v>433.6150479789219</v>
+        <v>64.14015977443196</v>
       </c>
       <c r="M26" t="n">
-        <v>488.6920656737788</v>
+        <v>77.8091628441921</v>
       </c>
       <c r="N26" t="n">
-        <v>475.1139289615002</v>
+        <v>605.7782291286875</v>
       </c>
       <c r="O26" t="n">
-        <v>237.8630693229157</v>
+        <v>473.0702563944625</v>
       </c>
       <c r="P26" t="n">
-        <v>60.52648647888097</v>
+        <v>478.8648071018085</v>
       </c>
       <c r="Q26" t="n">
-        <v>49.12206984527721</v>
+        <v>325.1315577031534</v>
       </c>
       <c r="R26" t="n">
-        <v>116.4792467512898</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36650,7 +36650,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>13.39805467964069</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2201637033604</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>96.76513670495454</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>4.539767784664872</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>216.9231228726204</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>22.52884228661489</v>
       </c>
       <c r="G28" t="n">
-        <v>6.487836469547742</v>
+        <v>6.487836469547743</v>
       </c>
       <c r="H28" t="n">
         <v>17.78354987336312</v>
@@ -36750,7 +36750,7 @@
         <v>37.7515800246611</v>
       </c>
       <c r="J28" t="n">
-        <v>130.5503956437713</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36759,22 +36759,22 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>97.24054325832024</v>
+        <v>155.8184117295041</v>
       </c>
       <c r="N28" t="n">
-        <v>47.17254445789012</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>132.4902239449445</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>56.61065353024397</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.95580584471102</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.9659897627144</v>
+        <v>35.96598976271441</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>22.4810213875354</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>290.4286269643293</v>
       </c>
       <c r="K29" t="n">
-        <v>482.3222435130606</v>
+        <v>482.3222435130607</v>
       </c>
       <c r="L29" t="n">
-        <v>377.3576025089863</v>
+        <v>605.7782291286875</v>
       </c>
       <c r="M29" t="n">
-        <v>77.80916284419217</v>
+        <v>500.8733444400697</v>
       </c>
       <c r="N29" t="n">
-        <v>605.7782291286875</v>
+        <v>80.04761793701662</v>
       </c>
       <c r="O29" t="n">
-        <v>395.8659141889404</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>60.52648647888114</v>
+        <v>60.5264864788812</v>
       </c>
       <c r="Q29" t="n">
         <v>325.1315577031535</v>
       </c>
       <c r="R29" t="n">
-        <v>51.36481071570957</v>
+        <v>31.04790091641283</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36884,7 +36884,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15.65944235764744</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -36893,13 +36893,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>27.92696086739824</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>46.32222843952788</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>216.9231228726195</v>
       </c>
       <c r="L30" t="n">
-        <v>121.4340495954664</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.58044161257942</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36966,34 +36966,34 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>5.564880868159207</v>
+        <v>5.564880868159179</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>21.94351647058079</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>22.99576661480134</v>
       </c>
       <c r="F31" t="n">
-        <v>22.52884228661506</v>
+        <v>22.52884228661503</v>
       </c>
       <c r="G31" t="n">
-        <v>6.487836469547912</v>
+        <v>6.487836469547885</v>
       </c>
       <c r="H31" t="n">
-        <v>17.78354987336329</v>
+        <v>17.78354987336327</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>37.75158002466124</v>
       </c>
       <c r="J31" t="n">
-        <v>86.82328192423108</v>
+        <v>130.5503956437714</v>
       </c>
       <c r="K31" t="n">
-        <v>95.81274969032849</v>
+        <v>25.97555204627421</v>
       </c>
       <c r="L31" t="n">
-        <v>98.63524734719313</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,16 +37002,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>56.4936076177237</v>
+        <v>132.4902239449445</v>
       </c>
       <c r="P31" t="n">
-        <v>89.84526573525679</v>
+        <v>91.86910733241453</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>35.96598976271457</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>22.48102138753523</v>
+        <v>22.48102138753526</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9439362532336</v>
+        <v>70.60302724063325</v>
       </c>
       <c r="K32" t="n">
-        <v>308.8375528019649</v>
+        <v>106.5857693289282</v>
       </c>
       <c r="L32" t="n">
-        <v>267.7920304342916</v>
+        <v>605.7782291286875</v>
       </c>
       <c r="M32" t="n">
-        <v>488.6920656737788</v>
+        <v>605.7782291286875</v>
       </c>
       <c r="N32" t="n">
-        <v>475.1139289615002</v>
+        <v>80.04761793701648</v>
       </c>
       <c r="O32" t="n">
-        <v>74.31036925846703</v>
+        <v>74.31036925846713</v>
       </c>
       <c r="P32" t="n">
-        <v>478.8648071018084</v>
+        <v>478.8648071018085</v>
       </c>
       <c r="Q32" t="n">
-        <v>49.12206984527721</v>
+        <v>325.1315577031534</v>
       </c>
       <c r="R32" t="n">
-        <v>116.4792467512898</v>
+        <v>29.05640025422966</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37139,7 +37139,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>37.99493894151548</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>106.5009704654434</v>
+        <v>216.9231228726204</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>72.42721346566157</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37206,16 +37206,16 @@
         <v>5.564880868159037</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>21.94351647058065</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>22.9957666148012</v>
       </c>
       <c r="F34" t="n">
         <v>22.52884228661489</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.487836469547743</v>
       </c>
       <c r="H34" t="n">
         <v>17.78354987336312</v>
@@ -37227,19 +37227,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>95.81274969032832</v>
+        <v>52.73320883507029</v>
       </c>
       <c r="L34" t="n">
-        <v>98.63524734719296</v>
+        <v>136.3676686401182</v>
       </c>
       <c r="M34" t="n">
-        <v>38.34146736444858</v>
+        <v>155.8184117295041</v>
       </c>
       <c r="N34" t="n">
-        <v>105.5021857399739</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>94.02074838039283</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>35.96598976271441</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>66.19971911022134</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9439362532336</v>
+        <v>114.3217249633193</v>
       </c>
       <c r="K35" t="n">
         <v>104.6519048932325</v>
       </c>
       <c r="L35" t="n">
-        <v>459.3282522180197</v>
+        <v>107.858857497118</v>
       </c>
       <c r="M35" t="n">
-        <v>139.9491536227582</v>
+        <v>121.5278605668782</v>
       </c>
       <c r="N35" t="n">
-        <v>123.7663156597025</v>
+        <v>253.2852363727646</v>
       </c>
       <c r="O35" t="n">
-        <v>118.0290669811532</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="P35" t="n">
-        <v>459.3282522180197</v>
+        <v>104.2451842015671</v>
       </c>
       <c r="Q35" t="n">
-        <v>92.84076756796334</v>
+        <v>368.8502554258395</v>
       </c>
       <c r="R35" t="n">
-        <v>160.197944473976</v>
+        <v>74.76659863909876</v>
       </c>
       <c r="S35" t="n">
-        <v>43.71869772268612</v>
+        <v>43.71869772268607</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>31.22905778758197</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37409,7 +37409,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>31.22905778758207</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.48357343624565</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>140.9592409810064</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>6.574462778438173</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.75199781965989</v>
+        <v>198.620349458474</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>66.19971911022142</v>
+        <v>66.19971911022139</v>
       </c>
       <c r="J38" t="n">
-        <v>114.3217249633194</v>
+        <v>334.1473246870153</v>
       </c>
       <c r="K38" t="n">
-        <v>308.8375528019649</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="L38" t="n">
-        <v>107.8588574971181</v>
+        <v>194.753158421562</v>
       </c>
       <c r="M38" t="n">
         <v>121.5278605668782</v>
       </c>
       <c r="N38" t="n">
-        <v>459.3282522180197</v>
+        <v>123.7663156597026</v>
       </c>
       <c r="O38" t="n">
-        <v>118.0290669811532</v>
+        <v>118.0290669811533</v>
       </c>
       <c r="P38" t="n">
-        <v>311.3251935423213</v>
+        <v>104.2451842015672</v>
       </c>
       <c r="Q38" t="n">
-        <v>92.8407675679634</v>
+        <v>92.84076756796341</v>
       </c>
       <c r="R38" t="n">
-        <v>74.76659863909885</v>
+        <v>160.197944473976</v>
       </c>
       <c r="S38" t="n">
-        <v>43.71869772268617</v>
+        <v>43.71869772268613</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37640,10 +37640,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>31.22905778758185</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>31.22905778758196</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.48357343624571</v>
+        <v>35.48357343624565</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37686,22 +37686,22 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>66.24754000930102</v>
       </c>
       <c r="G40" t="n">
-        <v>50.20653419223393</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>61.50224759604926</v>
       </c>
       <c r="I40" t="n">
-        <v>81.47027774734728</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>41.96145119531592</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>38.03442686108462</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>66.19971911022139</v>
       </c>
       <c r="J41" t="n">
-        <v>334.1473246870153</v>
+        <v>114.3217249633194</v>
       </c>
       <c r="K41" t="n">
-        <v>459.3282522180197</v>
+        <v>104.6519048932325</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>151.9464323753025</v>
       </c>
       <c r="M41" t="n">
-        <v>133.8669501262424</v>
+        <v>121.5278605668782</v>
       </c>
       <c r="N41" t="n">
         <v>123.7663156597026</v>
       </c>
       <c r="O41" t="n">
-        <v>459.3282522180197</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="P41" t="n">
         <v>104.2451842015672</v>
       </c>
       <c r="Q41" t="n">
-        <v>92.8407675679634</v>
+        <v>368.8502554258395</v>
       </c>
       <c r="R41" t="n">
-        <v>67.51254720952826</v>
+        <v>160.197944473976</v>
       </c>
       <c r="S41" t="n">
-        <v>43.71869772268617</v>
+        <v>43.71869772268613</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>31.22905778758185</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>31.22905778758196</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37932,16 +37932,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>30.92571887045444</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>174.2690933664574</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>142.3539450698792</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>53.13744401718105</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>9.703423149851332</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>66.19971911022131</v>
       </c>
       <c r="J44" t="n">
         <v>114.3217249633193</v>
       </c>
       <c r="K44" t="n">
-        <v>459.3282522180197</v>
+        <v>104.6519048932325</v>
       </c>
       <c r="L44" t="n">
         <v>107.858857497118</v>
       </c>
       <c r="M44" t="n">
-        <v>459.3282522180197</v>
+        <v>121.5278605668781</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>123.7663156597025</v>
       </c>
       <c r="O44" t="n">
-        <v>118.0290669811532</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="P44" t="n">
-        <v>263.1307279684895</v>
+        <v>233.7641049146294</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.84076756796334</v>
+        <v>368.8502554258394</v>
       </c>
       <c r="R44" t="n">
-        <v>160.197944473976</v>
+        <v>74.76659863909873</v>
       </c>
       <c r="S44" t="n">
-        <v>43.71869772268612</v>
+        <v>43.71869772268604</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38081,7 +38081,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>31.22905778758213</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>31.22905778758197</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38148,10 +38148,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.37978623305228</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>49.28357859084517</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38160,22 +38160,22 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>12.01575270128228</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.20653419223379</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>61.50224759604917</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.47027774734715</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>139.5314474130144</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
